--- a/04_Analysis/04_AnalysisExam_class/2_다나와제품_크롤링/files/3_1_danawa_crawling_result.xlsx
+++ b/04_Analysis/04_AnalysisExam_class/2_다나와제품_크롤링/files/3_1_danawa_crawling_result.xlsx
@@ -25,2455 +25,2455 @@
     <t>가격</t>
   </si>
   <si>
+    <t>LG전자 오브제컬렉션 코드제로 ThinQ A9S AO9571</t>
+  </si>
+  <si>
     <t>샤오미 CLEANFLY 차량용 무선 청소기 3세대 (해외구매)</t>
   </si>
   <si>
-    <t>pYjmCs0KPE</t>
-  </si>
-  <si>
-    <t>LG전자 오브제컬렉션 코드제로 ThinQ A9S AO9571</t>
+    <t>LG전자 코드제로 A9 A9100S</t>
+  </si>
+  <si>
+    <t>hT7xGJDPET</t>
   </si>
   <si>
     <t>샤오미 미지아 차량용 핸디 무선 청소기 (해외구매)</t>
   </si>
   <si>
-    <t>LG전자 코드제로 A9 A9100S</t>
-  </si>
-  <si>
     <t>삼성전자 비스포크 제트 VS20A956A3</t>
   </si>
   <si>
+    <t>샤오미 드리미 V10</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9218QDCC</t>
+  </si>
+  <si>
+    <t>샤오미 TROUVER POWER 11</t>
+  </si>
+  <si>
     <t>삼성전자 제트 VS20T9278S3CS</t>
   </si>
   <si>
-    <t>샤오미 드리미 V10</t>
+    <t>에코백스 디봇 오즈모 T9</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q6 WQ61-1OGG</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9370</t>
   </si>
   <si>
     <t>샤오미 LYDSTO 핸디형 에어펌프 진공청소기 (해외구매)</t>
   </si>
   <si>
-    <t>일렉트로룩스 WELL Q6 WQ61-1OGG</t>
-  </si>
-  <si>
-    <t>에코백스 디봇 오즈모 T9</t>
-  </si>
-  <si>
-    <t>샤오미 TROUVER POWER 11</t>
+    <t>LG전자 코드제로 ThinQ A9S A9700</t>
+  </si>
+  <si>
+    <t>리하스 차량용 미니 무선 청소기 TEB-4120</t>
+  </si>
+  <si>
+    <t>한샘 트리플 플러스 HSBC-6000W</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V9</t>
+  </si>
+  <si>
+    <t>다이슨 디지털 슬림 플러피+</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 PRO (해외구매)</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957D2</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957E3</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK-D260</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S+ AS9471</t>
+  </si>
+  <si>
+    <t>오토모 ATM-H100</t>
+  </si>
+  <si>
+    <t>다이슨 V10 플러피 오리진</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9400</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼스핀 HS-10000</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8500BF</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q7 WQ71-2OIB</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9470</t>
+  </si>
+  <si>
+    <t>다이슨 V11 컴플리트</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 ZB3302AK</t>
+  </si>
+  <si>
+    <t>인트비즈 MORUN 차량용 무선 미니 청소기 V5</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO Z11</t>
+  </si>
+  <si>
+    <t>다이슨 V10 카본파이버</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S AS9570</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9300</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 (해외구매)</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9278S3</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼라이팅 HS-9000</t>
+  </si>
+  <si>
+    <t>다이슨 V11 플러피 엑스트라</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S AS9470</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3BWF</t>
+  </si>
+  <si>
+    <t>다이슨 옴니 글라이드 컴플리트+</t>
+  </si>
+  <si>
+    <t>카렉스 파워스톰 미니 무선청소기</t>
+  </si>
+  <si>
+    <t>7jctqMoVGx</t>
+  </si>
+  <si>
+    <t>무궁화전자 바로바로 MC-B250</t>
+  </si>
+  <si>
+    <t>샤오미 유핀 CL99</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9500</t>
+  </si>
+  <si>
+    <t>삼성전자 에어본 화이트 VC-H22</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 네오스핀 OBC-AW09WH</t>
+  </si>
+  <si>
+    <t>DIBEA 차이슨 ALLNEW29000</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957G3</t>
+  </si>
+  <si>
+    <t>다이슨 V11 220AW 컴플리트</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피</t>
+  </si>
+  <si>
+    <t>오아 클린보틀 차량용 청소기 OA-CL002</t>
+  </si>
+  <si>
+    <t>DIBEA M500 프로</t>
+  </si>
+  <si>
+    <t>베이스어스 차량용 무선 진공 청소기 A2 (해외구매)</t>
+  </si>
+  <si>
+    <t>지웰 벤투스 아쿠아 프로</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 Well Q7 Pet WQ71-2PSSF</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9470IK</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK KC101</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q7 WQ71-2OIBF</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S 펫 A9700BPK</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 라피도 리튬 ZB6108</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9078S2</t>
+  </si>
+  <si>
+    <t>오토싱 OTOCINC-700B</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V10P</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-7100</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q7 WQ71-2BSWF</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S A9570</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957G2</t>
+  </si>
+  <si>
+    <t>다이슨 V11 220 에어와트 CF+</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9257SD</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V12</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3OBF</t>
+  </si>
+  <si>
+    <t>DIBEA D18</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 Well Q6 Pet WQ61-1PSH</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9279S6CS</t>
+  </si>
+  <si>
+    <t>DIBEA DW200</t>
+  </si>
+  <si>
+    <t>휴스톰 무선 심플스핀 HS-1000</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO Z11 PRO</t>
+  </si>
+  <si>
+    <t>Ldf2P9vWoQ</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9253QDCS</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q7 WQ71-2ESSF</t>
+  </si>
+  <si>
+    <t>신일전자 LCYC913</t>
+  </si>
+  <si>
+    <t>에코백스 디봇 오즈모 T8 AIVI</t>
+  </si>
+  <si>
+    <t>원더스리빙 원더스 다이나킹 Z9</t>
+  </si>
+  <si>
+    <t>유니맥스 UVC-1688</t>
+  </si>
+  <si>
+    <t>아이룸 AST-009</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-8858PNX</t>
+  </si>
+  <si>
+    <t>다이슨 V11 플러피</t>
+  </si>
+  <si>
+    <t>시원코퍼레이션 SRV-2010C</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A978</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 터보2.0 S87GMW</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-2OGF</t>
+  </si>
+  <si>
+    <t>기펠 ZET-10</t>
+  </si>
+  <si>
+    <t>한경희생활과학 아쿠아젯 AM-5600BM</t>
+  </si>
+  <si>
+    <t>캐치웰 CV6</t>
+  </si>
+  <si>
+    <t>다이슨 V8 카본파이버</t>
+  </si>
+  <si>
+    <t>블랙앤데커 BSV2020PS</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8577S5</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9043SA</t>
+  </si>
+  <si>
+    <t>다이슨 V10 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>비셀 크로스웨이브 펫 프로 2225N</t>
+  </si>
+  <si>
+    <t>DIBEA 에이스 맥스</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9278S7</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-7000</t>
+  </si>
+  <si>
+    <t>다이슨 V10 모터헤드</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A940</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A938A</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 프로 플러스 ZB3113AK</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS19R1004BF</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-5500</t>
+  </si>
+  <si>
+    <t>DIBEA NEW F7</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 터보 S86W</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 VS80M8051KL</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 플러스 ZB3105AK</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9078S3</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A958A</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 X30 Pro</t>
+  </si>
+  <si>
+    <t>롯데 L-277</t>
+  </si>
+  <si>
+    <t>삼성전자 뉴파워건 VS75N8011</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A950</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피 프로</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A960</t>
+  </si>
+  <si>
+    <t>EUP 스톰샷 VH806</t>
+  </si>
+  <si>
+    <t>AlwfjLOgqx</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피 헤파</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3111</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 울트라파워 ZB5021</t>
+  </si>
+  <si>
+    <t>모온 오비큠 플러스 이지클린 + 펫큠세트</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 프로</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 VS80M8030</t>
+  </si>
+  <si>
+    <t>다이슨 V7 플러피 플러스</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 VS80M8080</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 울트라파워 ZB5022</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 제로</t>
+  </si>
+  <si>
+    <t>다이슨 V6 코드프리 플러스</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9048SB</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 VS80M8090</t>
+  </si>
+  <si>
+    <t>삼성전자 뉴파워건 VS80N8062KK</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 VS80M8065K2</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A930</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V11</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-3BW</t>
+  </si>
+  <si>
+    <t>로엘 듀스핀</t>
+  </si>
+  <si>
+    <t>오션 차량용 청소기 H1 PLUS</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3414AK</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 Z1 Air</t>
+  </si>
+  <si>
+    <t>웍스 휴대용 차량용 충전 청소기 본체 WX030.9</t>
+  </si>
+  <si>
+    <t>보만 VC7210</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-650SG</t>
+  </si>
+  <si>
+    <t>샤오미 미지아 WXCDJ01SWDK</t>
+  </si>
+  <si>
+    <t>오토모 AVC-OTOA5</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 클래식 ZB3501EB</t>
+  </si>
+  <si>
+    <t>엔퓨텍 퓨라이트XD</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9213QD</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 차량용 무선청소기 3in1 CV01</t>
+  </si>
+  <si>
+    <t>보만 PC9006B</t>
+  </si>
+  <si>
+    <t>보아르 굿나잇클링</t>
+  </si>
+  <si>
+    <t>비셀 크로스웨이브 2582S</t>
   </si>
   <si>
     <t>일렉트로룩스 에르고라피도 파워프로 ZB3411</t>
   </si>
   <si>
-    <t>다이슨 디지털 슬림 플러피+</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9218QDCC</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9700</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9500</t>
-  </si>
-  <si>
-    <t>리하스 차량용 미니 무선 청소기 TEB-4120</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9370</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957D2</t>
-  </si>
-  <si>
-    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 PRO (해외구매)</t>
-  </si>
-  <si>
-    <t>샤오미 SWDK-D260</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼스핀 HS-10000</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9400</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V9</t>
-  </si>
-  <si>
-    <t>한샘 트리플 플러스 HSBC-6000W</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3BWF</t>
-  </si>
-  <si>
-    <t>다이슨 V8 플러피</t>
-  </si>
-  <si>
-    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 (해외구매)</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9278S3</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957G3</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S+ AS9471</t>
-  </si>
-  <si>
-    <t>OPOLAR 무선 에어 전동 청소기 CD01C (해외구매)</t>
-  </si>
-  <si>
-    <t>다이슨 V10 카본파이버</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8500BF</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 클래식 ZB3501EB</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 ZB3302AK</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S AS9570</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9257SD</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q7 WQ71-2OIB</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9253QDCS</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3OBF</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q7 WQ71-2ESSF</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9300</t>
-  </si>
-  <si>
-    <t>XocrJqhP8b</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-650SG</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼라이팅 HS-9000</t>
-  </si>
-  <si>
-    <t>카렉스 파워스톰 미니 무선청소기</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9470</t>
-  </si>
-  <si>
-    <t>베이스어스 차량용 무선 진공 청소기 A2 (해외구매)</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트</t>
-  </si>
-  <si>
-    <t>샤오미 SWDK KC101</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9470IK</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9279S6CS</t>
-  </si>
-  <si>
-    <t>다이슨 옴니 글라이드 컴플리트+</t>
-  </si>
-  <si>
-    <t>오토싱 OTOCINC-700B</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S A9570</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q7 WQ71-2BSWF</t>
-  </si>
-  <si>
-    <t>샤오미 미지아 WXCDJ01SWDK</t>
-  </si>
-  <si>
-    <t>오아 클린보틀 차량용 청소기 OA-CL002</t>
-  </si>
-  <si>
-    <t>인트비즈 MORUN 차량용 무선 미니 청소기 V5</t>
-  </si>
-  <si>
-    <t>샤오미 SHUNZAO Z11</t>
-  </si>
-  <si>
-    <t>삼성전자 에어본 화이트 VC-H22</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 Well Q7 Pet WQ71-2PSSF</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9078S2</t>
-  </si>
-  <si>
-    <t>DIBEA M500 프로</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-7100</t>
-  </si>
-  <si>
-    <t>DIBEA DW200</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q7 WQ71-2OIBF</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 Well Q6 Pet WQ61-1PSH</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V11</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-7000</t>
-  </si>
-  <si>
-    <t>DIBEA 차이슨 ALLNEW29000</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 네오스핀 OBC-AW09WH</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V12</t>
-  </si>
-  <si>
-    <t>시원코퍼레이션 SRV-2010C</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957G2</t>
-  </si>
-  <si>
-    <t>DIBEA D18</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-8858PNX</t>
-  </si>
-  <si>
-    <t>무궁화전자 바로바로 MC-B250</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V10P</t>
-  </si>
-  <si>
-    <t>샤오미 SHUNZAO Z11 PRO</t>
-  </si>
-  <si>
-    <t>다이슨 V10 플러피 오리진</t>
-  </si>
-  <si>
-    <t>다이슨 V11 플러피 엑스트라</t>
-  </si>
-  <si>
-    <t>에코백스 디봇 오즈모 T8 AIVI</t>
-  </si>
-  <si>
-    <t>다이슨 V11 220 에어와트 CF+</t>
-  </si>
-  <si>
-    <t>기펠 ZET-10</t>
-  </si>
-  <si>
-    <t>nxHfWUkUok</t>
-  </si>
-  <si>
-    <t>다이슨 V11 플러피</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-2OGF</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S 펫 A9700BPK</t>
-  </si>
-  <si>
-    <t>원더스리빙 원더스 다이나킹 Z9</t>
-  </si>
-  <si>
-    <t>한경희생활과학 아쿠아젯 AM-5600BM</t>
-  </si>
-  <si>
-    <t>다이슨 V8 카본파이버</t>
-  </si>
-  <si>
-    <t>블랙앤데커 BSV2020PS</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 터보2.0 S87GMW</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8577S5</t>
-  </si>
-  <si>
-    <t>신일전자 LCYC913</t>
-  </si>
-  <si>
-    <t>비셀 크로스웨이브 펫 프로 2225N</t>
-  </si>
-  <si>
-    <t>아이룸 AST-009</t>
-  </si>
-  <si>
-    <t>DIBEA 에이스 맥스</t>
+    <t>6JjC8rB7BK</t>
+  </si>
+  <si>
+    <t>스윙 파워스윙 SWING 8700-DC</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1820BK</t>
   </si>
   <si>
     <t>보쉬 GAS18V-1</t>
   </si>
   <si>
-    <t>삼성전자 제트 VS20R9043SA</t>
-  </si>
-  <si>
-    <t>롯데 L-277</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 VS80M8051KL</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9278S7</t>
-  </si>
-  <si>
-    <t>캐치웰 CV6</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9078S3</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A978</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 플러스 ZB3105AK</t>
-  </si>
-  <si>
-    <t>DIBEA NEW F7</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 프로 플러스 ZB3113AK</t>
-  </si>
-  <si>
-    <t>샤오미 로이드미 X30 Pro</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S AS9470</t>
-  </si>
-  <si>
-    <t>지웰 벤투스 아쿠아 프로</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A958A</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-5500</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A938A</t>
-  </si>
-  <si>
-    <t>다이슨 V10 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A940</t>
-  </si>
-  <si>
-    <t>샤오미 유핀 CL99</t>
-  </si>
-  <si>
-    <t>모온 오비큠 플러스 이지클린 + 펫큠세트</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 터보 S86W</t>
-  </si>
-  <si>
-    <t>다이슨 V10 모터헤드</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 울트라파워 ZB5022</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957E3</t>
-  </si>
-  <si>
-    <t>EUP 스톰샷 VH806</t>
-  </si>
-  <si>
-    <t>xqUHKQJAlG</t>
-  </si>
-  <si>
-    <t>삼성전자 뉴파워건 VS75N8011</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 VS80M8030</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 VS80M8080</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A950</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 울트라파워 ZB5021</t>
-  </si>
-  <si>
-    <t>다이슨 V8 플러피 헤파</t>
-  </si>
-  <si>
-    <t>다이슨 V7 플러피 플러스</t>
-  </si>
-  <si>
-    <t>샤오미 로이드미 제로</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 VS80M8090</t>
-  </si>
-  <si>
-    <t>다이슨 V8 플러피 프로</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3111</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 VS80M8065K2</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS19R1004BF</t>
-  </si>
-  <si>
-    <t>다이슨 V6 코드프리 플러스</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9048SB</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>삼성전자 뉴파워건 VS80N8062KK</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A960</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A930</t>
+    <t>휴스톰 듀얼리튬 HS-12000W</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A9579</t>
+  </si>
+  <si>
+    <t>블랙파인 JYW-BP01</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3311</t>
+  </si>
+  <si>
+    <t>DIBEA X20</t>
+  </si>
+  <si>
+    <t>쿠쿠전자 인스퓨어 파워클론 CVC-A1410UG</t>
+  </si>
+  <si>
+    <t>네오비즈 미라스 FX-248BC</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8577Q5CW</t>
+  </si>
+  <si>
+    <t>AIPINYUE 차량용 가정용 무선 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9218QD</t>
+  </si>
+  <si>
+    <t>DIBEA 차이슨 ALLNEW22000</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 WELL Q6 WQ61-1EDB</t>
+  </si>
+  <si>
+    <t>라우쉬 (RAUSCH) LSBC-6000</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9043QA</t>
+  </si>
+  <si>
+    <t>삼성전자 에어본 VC-H71</t>
+  </si>
+  <si>
+    <t>듀플렉스 DP-480VC</t>
+  </si>
+  <si>
+    <t>오아 OA-CL010</t>
+  </si>
+  <si>
+    <t>다이슨 옴니 글라이드+</t>
+  </si>
+  <si>
+    <t>메이드조이 차량용 청소기 MV-W200</t>
+  </si>
+  <si>
+    <t>키친아트 KIA-BC100</t>
+  </si>
+  <si>
+    <t>유행코리아 더쎈 차량용 무선 청소기 V3</t>
+  </si>
+  <si>
+    <t>베이스어스 차량용 무선 진공 청소기 A2</t>
+  </si>
+  <si>
+    <t>테팔 에어포스360 TY7233KO</t>
+  </si>
+  <si>
+    <t>툴앤툴 네오스틱 T1</t>
+  </si>
+  <si>
+    <t>아이닉 i20</t>
+  </si>
+  <si>
+    <t>리빙라떼 무선 욕실청소기</t>
+  </si>
+  <si>
+    <t>리하스 LH20</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 T20</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1420C</t>
+  </si>
+  <si>
+    <t>삼성전자 에어본 VC-PS86</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼라이팅 HS-9800P</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9213QDCSW</t>
+  </si>
+  <si>
+    <t>듀플렉스 DP-485VC</t>
+  </si>
+  <si>
+    <t>에코백스 디봇 N8 PRO</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS60K6081KD</t>
+  </si>
+  <si>
+    <t>제로홈 아쿠아 파워</t>
+  </si>
+  <si>
+    <t>오토싱 OTC-700BA</t>
+  </si>
+  <si>
+    <t>보아스 VO1000PG</t>
+  </si>
+  <si>
+    <t>C4bIgEsNdJ</t>
+  </si>
+  <si>
+    <t>DIBEA DT11</t>
+  </si>
+  <si>
+    <t>쿠조 PRG-2020-0010</t>
+  </si>
+  <si>
+    <t>좋은생활지웰 GWELL-8070</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PD1810BEXT</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 라피도 리튬 ZB6106</t>
+  </si>
+  <si>
+    <t>엔퓨텍 퓨라이트ED</t>
+  </si>
+  <si>
+    <t>홍진테크 인더스 IN-BDC26</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS02R6512JG</t>
+  </si>
+  <si>
+    <t>DIBEA NEW X10 플러스</t>
+  </si>
+  <si>
+    <t>루베크 CM-268</t>
+  </si>
+  <si>
+    <t>샤오미 VXDT01</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V10 ARES</t>
+  </si>
+  <si>
+    <t>캐치웰 미니제트</t>
+  </si>
+  <si>
+    <t>한경희생활과학 HKH-C250B</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS03R6523J2</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 네오스핀 CM01</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V9P</t>
+  </si>
+  <si>
+    <t>아이룸 D10</t>
+  </si>
+  <si>
+    <t>보만 VC7211</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼스핀 HS-10100W</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-300</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9259SECC</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8548S5</t>
+  </si>
+  <si>
+    <t>캐치웰 차량용 핸디 텀블러 청소기 THC1000</t>
+  </si>
+  <si>
+    <t>신일전자 SDC-P4000HP</t>
+  </si>
+  <si>
+    <t>차량용 무선 청소기 가정용 핸디용 (해외구매)</t>
+  </si>
+  <si>
+    <t>마끼다 DCL180Z</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A9200I</t>
+  </si>
+  <si>
+    <t>테팔 에어포스 라이트 TY6545KL</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK-DM790</t>
+  </si>
+  <si>
+    <t>웍스 WG630E.2</t>
+  </si>
+  <si>
+    <t>OPOLAR 자동차 USB 무선 청소기 TAD05 (해외구매)</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9213QDCS</t>
+  </si>
+  <si>
+    <t>툴앤툴 네오스틱 T400W</t>
+  </si>
+  <si>
+    <t>보쉬 GAS10.8V-LI</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-680G</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8548S5CW</t>
+  </si>
+  <si>
+    <t>플러스마이너스제로 XJC-C030</t>
+  </si>
+  <si>
+    <t>일럭스고 SVC-1019L</t>
   </si>
   <si>
     <t>다이슨 V11 플러피+</t>
   </si>
   <si>
+    <t>에어굿즈 MC1</t>
+  </si>
+  <si>
+    <t>UDRszWll4v</t>
+  </si>
+  <si>
+    <t>델로라 V11 파워 300W</t>
+  </si>
+  <si>
+    <t>이나프 ILVH-2000</t>
+  </si>
+  <si>
+    <t>엔퓨텍 퓨라이트에어XD</t>
+  </si>
+  <si>
+    <t>DIBEA 올인원뉴 무선청소기</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-2OG</t>
+  </si>
+  <si>
+    <t>샤오미 COCLEAN 차량용 무선 청소기</t>
+  </si>
+  <si>
+    <t>애니스 JB2000</t>
+  </si>
+  <si>
+    <t>모리츠 MO-BCL900</t>
+  </si>
+  <si>
+    <t>샤오미 TROUVER TECH SOLO10</t>
+  </si>
+  <si>
+    <t>샤오미 G10 프로</t>
+  </si>
+  <si>
+    <t>에어메이드 THE 500+ AMC-4500</t>
+  </si>
+  <si>
     <t>유행코리아 더쎈 유무선 청소기</t>
   </si>
   <si>
-    <t>블랙앤데커 PV1820BK</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9277Q3CS</t>
+    <t>보나크 HWV1019S</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 라피도 리튬 ZB6114</t>
+  </si>
+  <si>
+    <t>쿠쿠전자 인스퓨어 파워클론 CVC-A1420UG</t>
+  </si>
+  <si>
+    <t>홍진테크 델루체 DLBC-224NK</t>
+  </si>
+  <si>
+    <t>다이슨 V11 컴플리트 엑스트라</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-C17KP</t>
+  </si>
+  <si>
+    <t>플러스마이너스제로 Y010</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1020</t>
+  </si>
+  <si>
+    <t>아이프리 FX-108</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-3OB</t>
+  </si>
+  <si>
+    <t>하루랩 트리플 파워스핀 욕실청소기</t>
+  </si>
+  <si>
+    <t>마끼다 DCL182ZW</t>
+  </si>
+  <si>
+    <t>스위스밀리터리 에어슬림 SMA-BV2200</t>
+  </si>
+  <si>
+    <t>캐치웰 NEW F8</t>
+  </si>
+  <si>
+    <t>머레이 핸디형 무선청소기 HK-6030</t>
+  </si>
+  <si>
+    <t>티피오스 디제로 D2</t>
+  </si>
+  <si>
+    <t>일렉파워전자 아토케어 EP-70</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-DC2200SK</t>
+  </si>
+  <si>
+    <t>퍼피유 T12R</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 Z1</t>
   </si>
   <si>
     <t>LG전자 코드제로 ThinQ A9S 펫 AS9571BPKT</t>
   </si>
   <si>
-    <t>보쉬 GAS10.8V-LI</t>
-  </si>
-  <si>
-    <t>캐치웰 차량용 핸디 텀블러 청소기 THC1000</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 차량용 무선청소기 3in1 CV01</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V10 ARES</t>
-  </si>
-  <si>
-    <t>블랙앤데커 DVJ215B</t>
-  </si>
-  <si>
-    <t>휴스톰 무선 심플스핀 HS-1000</t>
+    <t>비브르 스톰파워 VE30</t>
+  </si>
+  <si>
+    <t>아이룸 RS7</t>
+  </si>
+  <si>
+    <t>보쉬 글래스 백</t>
+  </si>
+  <si>
+    <t>대웅모닝컴 DWV-DC520WS</t>
+  </si>
+  <si>
+    <t>로보락 H6</t>
+  </si>
+  <si>
+    <t>신일전자 롤링스턴 SVC-PEV660</t>
+  </si>
+  <si>
+    <t>7VTD9NEOu4</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼스핀 플러스 HS-11000</t>
+  </si>
+  <si>
+    <t>비브르 VBC700</t>
+  </si>
+  <si>
+    <t>한경희생활과학 VH-400WT</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8543S1CW</t>
+  </si>
+  <si>
+    <t>DIBEA AUTO17000</t>
+  </si>
+  <si>
+    <t>한빛시스템 HV-5010</t>
+  </si>
+  <si>
+    <t>블랙앤데커 TPD1420</t>
+  </si>
+  <si>
+    <t>욜로닉스 욜로와 YSM-3000</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 이지스틱 S739VA</t>
+  </si>
+  <si>
+    <t>캐치웰 코드엑스</t>
+  </si>
+  <si>
+    <t>오토봇 V3 휴대용 진공 청소기 ABV0031 (해외구매)</t>
+  </si>
+  <si>
+    <t>아로나전자 AL-6200R</t>
+  </si>
+  <si>
+    <t>DIBEA TSX-25000A</t>
+  </si>
+  <si>
+    <t>신일전자 더쎈 SVC-ECO150</t>
+  </si>
+  <si>
+    <t>클래파 BVC-H10</t>
+  </si>
+  <si>
+    <t>비브르 스톰파워 VE12</t>
+  </si>
+  <si>
+    <t>다이슨 V10 플러피</t>
+  </si>
+  <si>
+    <t>DIBEA Z10 프로</t>
+  </si>
+  <si>
+    <t>마끼다 CL100DZ</t>
+  </si>
+  <si>
+    <t>테팔 엑스퍼트 3.60 TY6974</t>
+  </si>
+  <si>
+    <t>샤오미 CLEANFLY 차량용 무선 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>비바 2017-SC01</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8543Q4CW</t>
+  </si>
+  <si>
+    <t>오토모 AVC-OTOA6</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957D3</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3512IG</t>
+  </si>
+  <si>
+    <t>스윙 파워스윙 SWING 8500</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957F3</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9257SDCC</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-D450WS</t>
+  </si>
+  <si>
+    <t>아이코넬 차량용 청소기 ICL-V01</t>
+  </si>
+  <si>
+    <t>아이룸 i10</t>
+  </si>
+  <si>
+    <t>홈마블 H20 HVC-B420K</t>
+  </si>
+  <si>
+    <t>DIBEA M24 MAX</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼스핀 HS-10500</t>
+  </si>
+  <si>
+    <t>유행코리아 더쎈 차량용 무선 청소기 V2</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-S4800SJ</t>
+  </si>
+  <si>
+    <t>T6LenYlIm8</t>
+  </si>
+  <si>
+    <t>하트만 차량용 무선 청소기 HHVC-JQ601G</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 네오스핀 NS02</t>
+  </si>
+  <si>
+    <t>다이슨 디지털 슬림 플러피</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 ThinQ A9S AS9571</t>
+  </si>
+  <si>
+    <t>홈마블 H80</t>
+  </si>
+  <si>
+    <t>신일전자 SDC-W8000NK</t>
+  </si>
+  <si>
+    <t>혼스 차량 무선 진공 청소기 HSCC-8000</t>
+  </si>
+  <si>
+    <t>샤오미 디어마 VC01</t>
+  </si>
+  <si>
+    <t>캐치웰 C10</t>
+  </si>
+  <si>
+    <t>샤오미 VIOMI A9 V-HWVC12A</t>
+  </si>
+  <si>
+    <t>다이슨 V7 플러피</t>
+  </si>
+  <si>
+    <t>아이룸 AST-009 플러스 맥스</t>
+  </si>
+  <si>
+    <t>유니맥스 UVC-1686A</t>
+  </si>
+  <si>
+    <t>캐치웰 THC-1000</t>
+  </si>
+  <si>
+    <t>삼성전자 에어본 화이트 VC-LSS95</t>
+  </si>
+  <si>
+    <t>툴앤툴 네오스틱 T300</t>
+  </si>
+  <si>
+    <t>샤오미 70mai 차량용 무선 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9279S6</t>
+  </si>
+  <si>
+    <t>라우쉬 (RAUSCH) LSDS-7000</t>
+  </si>
+  <si>
+    <t>위드앤올 하이스톰 에어건 무선 청소기</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A9100S + VNZ-PN02N</t>
+  </si>
+  <si>
+    <t>DIBEA D008 프로 헤파지움</t>
+  </si>
+  <si>
+    <t>리빙코리아 웰스톰 VC150</t>
+  </si>
+  <si>
+    <t>무궁화전자 바로바로 MHC-720</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9213QDCC</t>
+  </si>
+  <si>
+    <t>대웅모닝컴 DWM-HV74N</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 베드프로 ZB3323BO</t>
+  </si>
+  <si>
+    <t>아이닉 i20 엘리트</t>
+  </si>
+  <si>
+    <t>ZHINANCHE 차량용 핸디 무선 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>톰슨 ESR-BH610</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-R60BCK</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 F9 PF91-5EBF</t>
+  </si>
+  <si>
+    <t>쿠조 PRG-2020-00</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 HV01</t>
+  </si>
+  <si>
+    <t>카처 FC5 코드리스</t>
+  </si>
+  <si>
+    <t>비셀 크로스웨이브 3.0 맥스 2765N</t>
+  </si>
+  <si>
+    <t>이나프 VH-1600</t>
+  </si>
+  <si>
+    <t>혼시티 W7B8F63</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-D900RK</t>
+  </si>
+  <si>
+    <t>다이슨 V11 토탈클린</t>
+  </si>
+  <si>
+    <t>퀸메이드 퀸나 트러스트 QMDS-7000</t>
+  </si>
+  <si>
+    <t>Ix9UDI6VpU</t>
+  </si>
+  <si>
+    <t>블루윙 무선 욕실청소기</t>
+  </si>
+  <si>
+    <t>DIBEA X30</t>
+  </si>
+  <si>
+    <t>블루필 몽땅 BVC201</t>
+  </si>
+  <si>
+    <t>대우어플라이언스 아쿠아젯 DEX-WC130</t>
+  </si>
+  <si>
+    <t>삼성전자 비스포크 제트 VS20A957E2</t>
+  </si>
+  <si>
+    <t>캐치웰 NEW F7 플러스</t>
+  </si>
+  <si>
+    <t>무선 진공 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>신일전자 SDC-SJ250R</t>
+  </si>
+  <si>
+    <t>보아르 포스 B25</t>
+  </si>
+  <si>
+    <t>강력 무선 청소기 (해외구매)</t>
+  </si>
+  <si>
+    <t>로엘 듀스핀2</t>
+  </si>
+  <si>
+    <t>포엔코 PC-OP01</t>
+  </si>
+  <si>
+    <t>웍스 휴대용 차량용 충전 청소기 본체 WX030 (해외구매)</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3423BO</t>
+  </si>
+  <si>
+    <t>마끼다 DCL181</t>
+  </si>
+  <si>
+    <t>아이룸 A20</t>
+  </si>
+  <si>
+    <t>스윙 파워스윙 SWING-8000</t>
+  </si>
+  <si>
+    <t>샤오미 지미 JV85 Pro</t>
+  </si>
+  <si>
+    <t>신일전자 SVC-750SG</t>
+  </si>
+  <si>
+    <t>샤오미 DM-FC1001</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3EMF</t>
+  </si>
+  <si>
+    <t>웍스 WG630E</t>
+  </si>
+  <si>
+    <t>휴스톰 듀얼스핀 HS-9900G</t>
+  </si>
+  <si>
+    <t>한샘 스톰건 V12 VC-R201</t>
+  </si>
+  <si>
+    <t>보랄 큐텐 BR-Q390RV</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 베드프로 ZB3324B</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8543S1</t>
+  </si>
+  <si>
+    <t>보아르 워터스핀 E1</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20T9258SDCC</t>
   </si>
   <si>
     <t>일렉트로룩스 에르고라피도 파워프로 ZB3426BL</t>
   </si>
   <si>
-    <t>보만 PC9006B</t>
-  </si>
-  <si>
-    <t>스윙 파워스윙 SWING 8700-DC</t>
-  </si>
-  <si>
-    <t>아이닉 i20</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1688</t>
-  </si>
-  <si>
-    <t>비셀 크로스웨이브 2582S</t>
-  </si>
-  <si>
-    <t>웍스 WG630E.2</t>
-  </si>
-  <si>
-    <t>블랙파인 JYW-BP01</t>
-  </si>
-  <si>
-    <t>5INgcr3170</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-6XRF</t>
-  </si>
-  <si>
-    <t>AIPINYUE 차량용 가정용 무선 청소기 (해외구매)</t>
-  </si>
-  <si>
-    <t>보아르 굿나잇클링</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS02R6512JG</t>
-  </si>
-  <si>
-    <t>코슬리 차량용 무선 청소기 VC3939</t>
-  </si>
-  <si>
-    <t>로엘 듀스핀</t>
-  </si>
-  <si>
-    <t>DIBEA 차이슨 ALLNEW22000</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9043QA</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 라피도 리튬 ZB6114</t>
-  </si>
-  <si>
-    <t>아이코넬 차량용 청소기 ICL-V01</t>
-  </si>
-  <si>
-    <t>엔퓨텍 퓨라이트XD</t>
-  </si>
-  <si>
-    <t>듀플렉스 DP-485VC</t>
-  </si>
-  <si>
-    <t>엔퓨텍 퓨라이트ED</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V9P</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-680G</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼스핀 HS-10100W</t>
-  </si>
-  <si>
-    <t>미라스 FX-248BC</t>
-  </si>
-  <si>
-    <t>쿠첸 CVC-LH602W</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9257SDCS</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3EM</t>
-  </si>
-  <si>
-    <t>다이슨 옴니 글라이드+</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-5EBF</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-5OGF</t>
-  </si>
-  <si>
-    <t>보쉬 글래스 백</t>
-  </si>
-  <si>
-    <t>DIBEA TSX-25000A</t>
-  </si>
-  <si>
-    <t>블루필 몽땅 BVC201</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8543S1CW</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 T20</t>
-  </si>
-  <si>
-    <t>샤오미 VXDT01</t>
-  </si>
-  <si>
-    <t>DIBEA Z10 프로</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS03R6523J2</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8543Q4CW</t>
-  </si>
-  <si>
-    <t>오토모 ATM-H100</t>
-  </si>
-  <si>
-    <t>톰슨 ESR-BH610</t>
-  </si>
-  <si>
-    <t>플러스마이너스제로 XJC-C030</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1686A</t>
-  </si>
-  <si>
-    <t>아이룸 i10</t>
-  </si>
-  <si>
-    <t>dAMGAEjLEa</t>
-  </si>
-  <si>
-    <t>아이룸 D10</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9213QDCSW</t>
-  </si>
-  <si>
-    <t>오토모 AVC-OTOA5</t>
-  </si>
-  <si>
-    <t>카처 FC5 코드리스</t>
-  </si>
-  <si>
-    <t>샤오미 CLEANFLY 차량용 무선 청소기 (해외구매)</t>
-  </si>
-  <si>
-    <t>에이스전자 파워클론 ATC-111</t>
-  </si>
-  <si>
-    <t>다이슨 V11 220AW 컴플리트</t>
-  </si>
-  <si>
-    <t>티피오스 디제로 D2</t>
-  </si>
-  <si>
-    <t>블랙앤데커 WD7201</t>
-  </si>
-  <si>
-    <t>DIBEA 올인원뉴 무선청소기</t>
+    <t>벤하임코리아 클리벤 무선 핸디 청소기</t>
   </si>
   <si>
     <t>DIBEA D18 플러스</t>
   </si>
   <si>
-    <t>샤오미 G10 프로</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-S21JA</t>
-  </si>
-  <si>
-    <t>샤오미 FIXNOW XYQX-300E</t>
-  </si>
-  <si>
-    <t>머레이 핸디형 무선청소기 HK-6030</t>
-  </si>
-  <si>
-    <t>DIBEA DT11</t>
-  </si>
-  <si>
-    <t>UDT UD-750</t>
-  </si>
-  <si>
-    <t>라쿠진 LCZ858</t>
-  </si>
-  <si>
-    <t>스윙 파워스윙 SWING-8000</t>
-  </si>
-  <si>
-    <t>보아르 워터스핀 E1</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-H70S</t>
-  </si>
-  <si>
-    <t>샤오미 TROUVER TECH SOLO10</t>
-  </si>
-  <si>
-    <t>삼성전자 에어본 VC-H71</t>
-  </si>
-  <si>
-    <t>블랙앤데커 DVJ315B</t>
-  </si>
-  <si>
-    <t>루베크 CM-268</t>
-  </si>
-  <si>
-    <t>무궁화전자 바로바로 MC-B601</t>
-  </si>
-  <si>
-    <t>테팔 엑스퍼트 3.60 TY6974</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-2OG</t>
-  </si>
-  <si>
-    <t>오아 OA-CL010</t>
-  </si>
-  <si>
-    <t>쿠조 PRG-2020-0010</t>
-  </si>
-  <si>
-    <t>에코백스 디봇 N8 PRO</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 라피도 리튬 ZB6108</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9259SECC</t>
-  </si>
-  <si>
-    <t>마끼다 DCL180Z</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3311</t>
-  </si>
-  <si>
-    <t>보랄 BR-R814HVC</t>
-  </si>
-  <si>
-    <t>애니스 JB8008CG</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 베드프로 ZB3323BO</t>
-  </si>
-  <si>
-    <t>한샘 스톰건 V12 VC-R201</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q6 WQ61-1EDB</t>
-  </si>
-  <si>
-    <t>캐치웰 VX11</t>
-  </si>
-  <si>
-    <t>이나프 ILVH-2000</t>
-  </si>
-  <si>
-    <t>벤하임코리아 클리벤 무선 핸디 청소기</t>
-  </si>
-  <si>
-    <t>s3stnLMAqV</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼리튬 HS-12000W</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-S4800SJ</t>
-  </si>
-  <si>
-    <t>OPOLAR 자동차 USB 무선 청소기 TAD05 (해외구매)</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-D215BWK</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PD1810BEXT</t>
-  </si>
-  <si>
-    <t>오션 차량용 청소기 H1 PLUS</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957E2</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9213QDCS</t>
-  </si>
-  <si>
-    <t>일럭스고 SVC-1019L</t>
-  </si>
-  <si>
-    <t>마끼다 DCL182ZW</t>
-  </si>
-  <si>
-    <t>DIBEA X20</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8548S5</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 라피도 리튬 ZB6106</t>
-  </si>
-  <si>
-    <t>DIBEA M500</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A9200I</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957F3</t>
-  </si>
-  <si>
-    <t>홈마블 H80</t>
-  </si>
-  <si>
-    <t>유행코리아 더쎈 차량용 무선 청소기 V3</t>
-  </si>
-  <si>
-    <t>비브르 스톰파워 VE30</t>
-  </si>
-  <si>
-    <t>유행코리아 더쎈 차량용 무선 청소기 V2</t>
-  </si>
-  <si>
-    <t>스위스밀리터리 에어슬림 SMA-BV2200</t>
-  </si>
-  <si>
-    <t>라우쉬 (RAUSCH) LSBC-6000</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3512IG</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3OB</t>
-  </si>
-  <si>
-    <t>DIBEA AUTO17000</t>
-  </si>
-  <si>
-    <t>테팔 에어포스360 에센셜</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8547Q1CW</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8548S5CW</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9213QD</t>
-  </si>
-  <si>
-    <t>보아스 VO1000PG</t>
-  </si>
-  <si>
-    <t>엔퓨텍 퓨라이트에어XD</t>
-  </si>
-  <si>
-    <t>캐치웰 NEW F8</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트 엑스트라</t>
-  </si>
-  <si>
-    <t>삼성전자 비스포크 제트 VS20A957D3</t>
-  </si>
-  <si>
-    <t>웍스 휴대용 차량용 충전 청소기 본체 WX030.9</t>
-  </si>
-  <si>
-    <t>하트만 차량용 무선 청소기 HHVC-JQ601G</t>
-  </si>
-  <si>
-    <t>pY69g5Ee3t</t>
-  </si>
-  <si>
-    <t>툴앤툴 네오스틱 T400W</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9257SDCC</t>
-  </si>
-  <si>
-    <t>애니스 JB2000</t>
-  </si>
-  <si>
-    <t>비트로캔디 VO903M</t>
-  </si>
-  <si>
-    <t>DIBEA X30</t>
-  </si>
-  <si>
-    <t>리하스 LH20</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3BW</t>
-  </si>
-  <si>
     <t>삼성전자 제트 VS20T9257SECC</t>
   </si>
   <si>
-    <t>샤오미 로이드미 Z1</t>
-  </si>
-  <si>
-    <t>위드앤올 하이스톰 에어건 무선 청소기</t>
-  </si>
-  <si>
-    <t>샤오미 SWDK-DM790</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A9100S + VNZ-PN02N</t>
-  </si>
-  <si>
-    <t>아이룸 RS7</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 ThinQ A9S AS9571</t>
-  </si>
-  <si>
-    <t>마끼다 CL100DZ</t>
-  </si>
-  <si>
-    <t>아이룸 ASC-079</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼스핀 플러스 HS-11000</t>
-  </si>
-  <si>
-    <t>혼시티 W7B8F63</t>
-  </si>
-  <si>
-    <t>일렉파워전자 아토케어 EP-70</t>
-  </si>
-  <si>
-    <t>신일전자 더쎈 SVC-ECO150</t>
-  </si>
-  <si>
-    <t>비브르 스톰파워 VE12</t>
-  </si>
-  <si>
-    <t>마끼다 DCL181</t>
-  </si>
-  <si>
-    <t>카렉스 파워스톰 스마트 무선 청소기 6WC0900037</t>
-  </si>
-  <si>
-    <t>대웅모닝컴 DWM-HV74N</t>
-  </si>
-  <si>
-    <t>샤오미 VIOMI A9 V-HWVC12A</t>
-  </si>
-  <si>
-    <t>비브르 VBC700</t>
-  </si>
-  <si>
-    <t>델로라 V11 파워 300W</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-DC2200SK</t>
-  </si>
-  <si>
-    <t>캐치웰 코드엑스</t>
-  </si>
-  <si>
-    <t>샤오미 COCLEAN 차량용 무선 청소기</t>
-  </si>
-  <si>
-    <t>카딕 몬스터 스톰건 무선 청소기</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 파워프로 PQ92-3EMF</t>
-  </si>
-  <si>
-    <t>한빛시스템 HV-5010</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1990</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9213QDCC</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9279S6</t>
-  </si>
-  <si>
-    <t>듀플렉스 DP-480VC</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 WELL Q6 WQ61-1EDBF</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9258SDCC</t>
-  </si>
-  <si>
-    <t>샤오미 지미 JV85 Pro</t>
-  </si>
-  <si>
-    <t>DIBEA NEW X10 플러스</t>
-  </si>
-  <si>
-    <t>델첸 퍼스널 무선 미니 차량용 핸디청소기 DC-C01</t>
-  </si>
-  <si>
-    <t>샤오미 디어마 VC01</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8543S1</t>
-  </si>
-  <si>
-    <t>hP1NvXgn8W</t>
-  </si>
-  <si>
-    <t>아이룸 AST-009 플러스 맥스</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-R60BCK</t>
-  </si>
-  <si>
-    <t>로보락 H6</t>
-  </si>
-  <si>
-    <t>블랙앤데커 DVC320B24</t>
-  </si>
-  <si>
-    <t>이마트 더 그린건 플러스 VG-9039T</t>
-  </si>
-  <si>
-    <t>휴스톰 듀얼스핀 HS-10500</t>
-  </si>
-  <si>
-    <t>쿠쿠전자 인스퓨어 파워클론 CVC-A1410UG</t>
-  </si>
-  <si>
-    <t>한경희생활과학 HKH-C250B</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 네오스핀 NS02</t>
-  </si>
-  <si>
-    <t>테팔 엑스퍼트 3.60 TY6933</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-D450WS</t>
-  </si>
-  <si>
-    <t>무궁화전자 바로바로 MHC-720</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8577S5CW</t>
-  </si>
-  <si>
-    <t>라우쉬 (RAUSCH) LSDS-7000</t>
-  </si>
-  <si>
-    <t>툴앤툴 네오스틱 T300</t>
-  </si>
-  <si>
-    <t>USB 차량용 미니휴대 무선 청소기 (해외구매)</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 베드프로 ZB3324B</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3423BO</t>
-  </si>
-  <si>
-    <t>퍼피유 T12R</t>
-  </si>
-  <si>
-    <t>샤오미 DM-FC1001</t>
-  </si>
-  <si>
-    <t>DIBEA D008 프로 헤파지움</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-750SG</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20T9259SFCS</t>
-  </si>
-  <si>
-    <t>DIBEA NEW F7 플러스</t>
-  </si>
-  <si>
-    <t>아이코넬 VC-K350W</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-D900RK</t>
-  </si>
-  <si>
-    <t>테팔 에어포스 라이트 TY6547KM</t>
-  </si>
-  <si>
-    <t>라헨느 V25 더 퀸 앱솔루트 LHVC-N250</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9074S3</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-6BWF</t>
-  </si>
-  <si>
-    <t>신일전자 SDC-B5000W</t>
-  </si>
-  <si>
-    <t>아이닉 i20 엘리트</t>
-  </si>
-  <si>
-    <t>대우어플라이언스 아쿠아젯 DEX-WC130</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 VC01</t>
+    <t>삼성전자 제트 VS20T9248SB</t>
   </si>
   <si>
     <t>샤오미 미지아 MJCMY01DY</t>
   </si>
   <si>
-    <t>테팔 에어포스 라이트 TY6545KL</t>
-  </si>
-  <si>
-    <t>GawMOLplhU</t>
-  </si>
-  <si>
-    <t>삼성전자 에어본 화이트 VC-LSS95</t>
-  </si>
-  <si>
-    <t>로엘 듀스핀2</t>
-  </si>
-  <si>
-    <t>케이디와이 휴대용 미니청소기 KPV-3525</t>
-  </si>
-  <si>
-    <t>클래파 BVC-H10</t>
-  </si>
-  <si>
-    <t>키친아트 KIA-BC100</t>
-  </si>
-  <si>
-    <t>워크래프트 차량용 청소기 세트 CPVC-S20Li</t>
-  </si>
-  <si>
-    <t>블랙앤데커 TPD1420</t>
-  </si>
-  <si>
-    <t>에어메이드 THE 500+ AMC-4500</t>
-  </si>
-  <si>
-    <t>쿠쿠전자 인스퓨어 파워클론 CVC-A1420UG</t>
+    <t>홍진테크 AT-H12V</t>
   </si>
   <si>
     <t>샤오미 로이드미 핸디 청소기 NANO (해외구매)</t>
   </si>
   <si>
-    <t>휴스톰 듀얼스핀 HS-9900G</t>
-  </si>
-  <si>
-    <t>차량용 무선 청소기 가정용 핸디용 (해외구매)</t>
-  </si>
-  <si>
-    <t>대웅모닝컴 DWVC-AC800KP</t>
-  </si>
-  <si>
-    <t>샤오미 디어마 VC20 PLUS</t>
-  </si>
-  <si>
-    <t>보아스 스핀맙 FD-CDM-C</t>
-  </si>
-  <si>
-    <t>워크래프트 차량용 청소기 CPVC-S20Li</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15T7037P1</t>
-  </si>
-  <si>
-    <t>아이룸 RS1</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3511DB</t>
-  </si>
-  <si>
-    <t>에이스전자 ARW-C100</t>
-  </si>
-  <si>
-    <t>제이엠스퀘어 바넥스 차량용 무선 청소기 BX-C30</t>
-  </si>
-  <si>
-    <t>오토모 AVC-OTOA6</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3424BL</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 네오스핀 CM01</t>
-  </si>
-  <si>
-    <t>한경희생활과학 SM-2000</t>
-  </si>
-  <si>
-    <t>다이슨 V10 플러피</t>
-  </si>
-  <si>
-    <t>신일전자 롤링스턴 SDC-EQ900</t>
-  </si>
-  <si>
     <t>DIBEA V20 플러스</t>
   </si>
   <si>
-    <t>신일전자 SVC-499WS</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 이지스틱 S739VA</t>
-  </si>
-  <si>
-    <t>차량 미니 청소기 (해외구매)</t>
-  </si>
-  <si>
-    <t>유행코리아 더쎈 차량용 무선청소기 핸디형</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-9300W</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 HV01</t>
-  </si>
-  <si>
-    <t>블루윙 무선 욕실청소기</t>
-  </si>
-  <si>
-    <t>리빙코리아 웰스톰 VC150</t>
-  </si>
-  <si>
-    <t>베이스어스 차량용 캡슐 무선 진공 청소기</t>
-  </si>
-  <si>
-    <t>벨퍼포먼스 무선 핸디 미니 차량용 청소기 D2</t>
-  </si>
-  <si>
-    <t>신일전자 SVC-0422BLDC</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 카밍베이지 / 무게: 2.6kg / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
     <t>차량용청소기 / 무선 / 흡입력: 16,800Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 크기: 369x72mm / 무게: 560g / 충전방식: USB C타입 / 배터리용량: 2,000mAh</t>
   </si>
   <si>
-    <t>pYjmCs0KPE686077</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 카밍베이지 / 무게: 2.6kg / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>hT7xGJDPET158193</t>
   </si>
   <si>
     <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 9~30분 / 버튼 잠금 장치 / 2단 세기 조절 / 크기: 55x267mm / 무게: 500g</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.15L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 20000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 카펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 화이트+오렌지 / 무게: 1.45kg / 크기(가로x세로): 227x1227mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+실버 / 크기(가로x세로x깊이): 250x1136x215mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
+    <t>로봇청소기 / 흡입+걸레 / [센서] dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 3000Pa / 용량: 5200mAh / 충전시간: 6시간 / 사용시간: 3시간(개당) / 소비전력: 50W / [기능] 스마트폰제어: 금지구역, 원격예약 / 바닥감지 / 자동충전 / 자동먼지비움 / [부가] 먼지통용량: 0.42L / 물통용량: 0.18L / 색상: 화이트 / 무선형 / 아로마캡슐디퓨저 / 크기(가로x세로x깊이): 353x93.6x353mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.65kg / 크기(가로x세로x깊이): 386x692x146mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
     <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 스테인리스 필터 / LED라이트 / 사용시간: 15~30분 / 충전방식: USB C타입 / 배터리용량: 2,500mAH / 크기: 315x55mm / 무게: 500g / 압력설정 / 최대압력: 150psi / 에어배출량(분당): 10L</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.65kg / 크기(가로x세로x깊이): 386x692x146mm</t>
-  </si>
-  <si>
-    <t>로봇청소기 / 흡입+걸레 / [센서] dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 3000Pa / 용량: 5200mAh / 충전시간: 6시간 / 사용시간: 3시간(개당) / 소비전력: 50W / [기능] 스마트폰제어: 금지구역, 원격예약 / 바닥감지 / 자동충전 / 자동먼지비움 / [부가] 먼지통용량: 0.42L / 물통용량: 0.18L / 색상: 화이트 / 무선형 / 아로마캡슐디퓨저 / 크기(가로x세로x깊이): 353x93.6x353mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 20000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 카펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 화이트+오렌지 / 무게: 1.45kg / 크기(가로x세로): 227x1227mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15~28분 / 충전시간: 4~5시간 / 색상: 블랙, 스카이블루, 화이트 / 크기: 415mm / 무게: 520g</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / 소비전력: 30W / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 1시간40분(개당) / [기능] 프리볼트 / [부가] 색상: 화이트 / 완전방수 / 브러쉬: 평면, 틈새, 스크럽</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 20000Pa / 소비전력: 400W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 60분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 100AW / [배터리] 분리형 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 스터번더트 / 틈새 / 매트리스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 색상: 오렌지 / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 최대출력: 120W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전시간: 2시간30분 / 충전방식: USB C타입 / 크기: 73x76x336mm / 무게: 610g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 50분(개당) / [기능] 물분사 / LED라이트 / 프리볼트 / [부가] 색상: 화이트 / 무게: 2.4kg / 110V / 변환어댑터: 필요</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / [기능] 자동물공급 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 색상: 블랙 / 무게: 2.6kg / 일체형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 70W / [배터리] 리튬이온 / 용량: 2200mAh / [필터] 2단계여과 / [구성] 솔형 / [부가] 먼지통용량: 0.12L / 색상: 화이트, 블랙 / 무게: 0.6kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 151AW / [배터리] 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1241x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 185AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 42분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 스페이스틸 / 무게: 3.22kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 12분(고속),25분(저속) / 리튬이온배터리 / 색상: 바닐라화이트, 메탈그레이 / 크기: 56x330mm / 무게: 540g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 150AW / 흡입력: 26000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 160AW / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 토크드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 색상: 블랙 / 무게: 2.6kg / 분리형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 7,000Pa / 최대출력: 90W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전방식: USB C타입 / 충전시간: 2시간30분 / 크기: 73x76x336mm / 무게: 700g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+실버 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블랙 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x860x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 분리형 / 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [필터] 6단계여과 / [기능] 디스플레이표시창 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.97kg / 크기(가로x세로x깊이): 261x1261x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아이언그레이 / 무게: 2.6kg / 일체형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 50AW / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [필터] 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 서페이스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 퍼플 / 무게: 1.9kg / 크기(가로x세로x깊이): 208x1077x92mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 17분 / 충전방식: 시거잭, 220V / BLCD모터 / 충전시간: 5시간30분 / 크기: 93x439mm / 무게: 505g</t>
+  </si>
+  <si>
+    <t>7jctqMoVGx566592</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 60W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 20분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / 소비전력: 37W / [배터리] 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 50분(개당) / [부가] 색상: 화이트 / 무게: 1.1kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 소비전력: 48W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 10분(개당) / [부가] 무게: 0.76kg / 크기(가로x세로x깊이): 103x317x174mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / 소비전력: 8W / [배터리] 리튬이온 / 용량: 1950mAh / 충전시간: 4~5시간 / 사용시간: 50분(개당) / [부가] 무게: 0.86kg / 생활방수 / 브러쉬: 원형, 평면, 틈새</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 29000Pa / 소비전력: 380W / 분리형 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 폴라나이트그레이, 미드나이트블랙 / 무게: 2.4kg / UV살균 / 크기(가로x세로x깊이): 255x1150x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.15L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 루트싸이클론 / 흡입력: 220AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.58kg / 크기(가로x세로x깊이): 250x1264x224mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 코드길이: 4.5m / 충전시간: 2.5시간 / 크기: 73x73x305mm / 무게 : 703g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 22000Pa / 소비전력: 250W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 무게: 2.2kg / 크기(가로x세로x깊이): 260x1140x214mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 70W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 18분 / 색상: 그린, 블랙, 화이트 / 60ml 먼지통 / 배터리 표시등</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 배터리: 리튬이온 / 용량: 2200mAh / 충전시간: 3~4시간 / 사용시간: 30분(개당) / [기능] 물분사 / 셀프스탠딩 / 거치대 / 소비전력: 120W / [부가] 무게: 3kg / 오토클리닝</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 소프트샌드 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 2시간30분 / 사용시간: 25분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 거치대 / 흡입력: 6000Pa / 헤파필터 / 3단계여과 / [부가] 무게: 1.3kg / 크기(가로x세로): 270x324mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 블랙 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 23분(개당) / [필터] 3단계여과 / [구성] 거치대 / [부가] 색상: 초코릿브라운 메탈릭 / 무게: 1.1kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 사용시간: 40분(개당) / [기능] 소비전력: 80W / [부가] 색상: 화이트 / 무게: 3.2kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1190x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로): 258x1226mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 1시간20분(개당) / [기능] 각도조절 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 네이비 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x146mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 썬옐로우 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [필터] 6단계여과 / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 흡입력: 185AW / 흡입력: 27000Pa / 소비전력: 550W / [배터리] 내장형 / 용량: 3000mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.25L / 색상: 블랙 / 무게: 1.65kg / 크기(가로x세로): 200x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 9000Pa / 소비전력: 120W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 45분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 쉘화이트 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 10000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 100V / 변환어댑터: 필요 / 색상: 화이트 / 무게: 2kg / 크기(가로x세로x깊이): 210x1040x104mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 각도조절 / 프리볼트 / [부가] 색상: 블랙 / 무게: 1.6kg / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1070x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150AW / 흡입력: 26000Pa / [배터리] 분리형 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트, 레드</t>
+  </si>
+  <si>
+    <t>Ldf2P9vWoQ661680</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 소프트샌드 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x146mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 3500Pa / 소비전력: 100W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 3시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / [구성] 솔형 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 0.48kg / 크기(가로x세로): 98x395mm</t>
+  </si>
+  <si>
+    <t>로봇청소기 / 흡입+걸레 / [센서] 카메라1개 / dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 1500Pa / 용량: 5200mAh / 충전시간: 6시간30분 / 사용시간: 3시간(개당) / 헤파필터 / 3단계여과 / 소음: 67dB / 소비전력: 40W / [기능] 스마트폰제어: 간편업데이트, 금지구역, 원격예약 / 바닥감지 / 자동충전 / 자동먼지비움 / 음성안내 / [부가] 먼지통용량: 0.42L / 물통용량: 0.24L / 색상: 블랙 / 무게: 4.6kg / 무선형 / 크기(가로x세로x깊이): 353x93.6x353mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 듀얼싸이클론 / BLDC모터 / 흡입력: 160AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 4시간30분 / 사용시간: 1시간5분(개당) / [필터] 헤파필터 / 6단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 펫 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.7L / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1096x198mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 소비전력: 25W / [배터리] 니켈카드뮴 / 충전시간: 10~12시간 / [구성] 카펫 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블루 / 무게: 0.683kg / 크기(가로x세로x깊이): 95x350x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 7000Pa / 소비전력: 120W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.8kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 17000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2kg / 크기(가로x세로x깊이): 274x1150x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 185AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈레드 / 무게: 2.95kg / 크기(가로x세로x깊이): 261x1280x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 120W / [배터리] 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 28분(개당) / [필터] 헤파필터 / H13급 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.09L / 색상: 화이트 / 무게: 0.52kg / 크기(가로x세로x깊이): 75x415x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 아이언그레이 / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 인버터모터 / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간30분 / 사용시간: 20분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 메탈릭골드 / 무게: 2.9kg / 크기(가로x세로x깊이): 190x1105x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 0.8kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 200W / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1045x240mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2150mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 물분사 / [부가] 색상: 블랙 / 무게: 3.4kg / 스위블기능 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 450x1230x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 트윈싸이클론 / 흡입력: 9000Pa / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 도킹스테이션 / [부가] 색상: 레드 / 무게: 1.89kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155W / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 40AW / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 5시간 / 사용시간: 1시간(개당) / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / [부가] 색상: 퍼플 / 무게: 2.75kg / 크기(가로x세로x깊이): 283x1030x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 60분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+핑크 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 유선형 / 전선길이: 7.6m / [부가] 물통용량: 0.82L / 색상: 실버+블루 / 무게: 5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 19000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+골드 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 80분(개당) / [기능] 각도조절 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 화이트 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 다이렉트드라이브 / 솔형 / 틈새 / 도킹스테이션 / [부가] 무게: 2.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 거치대 / [부가] 색상: 보헤미안레드 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 판타지실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 45분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 텅스텐 / 무게: 2.6kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 60분(개당) / [기능] 가구손상방지 / 셀프스탠딩 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 화이트, 그린, 오렌지 / 무게: 3.1kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 18000Pa / 소비전력: 250W / [배터리] 리튬이온 / 충전시간: 4~6시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / [구성] 바닥 / 카펫 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.11kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 인버터모터 / 소비전력: 90W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간30분 / 사용시간: 40분(강), 70분(약)(개당) / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 샤이니레드 / 무게: 2.8kg / 크기(가로x세로x깊이): 190x1105x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 메탈레드 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 브론즈 / 무게: 2.5kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 판타지실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 26500Pa / 소비전력: 435W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 2시간30분 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / 6단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 160W / 소비전력: 160W / [배터리] 분리형 / 리튬이온 / 용량: 2150mAh / 충전시간: 4시간30분 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 무게: 3.7kg / 크기(가로x세로x깊이): 220x1150x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 130W / 소비전력: 400W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 카펫 / 침구 / 굳은먼지 / 상부청소 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 7000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 20~30분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 110V / 변환어댑터: 필요 / 색상: 핑크 / 무게: 2.3kg / 크기(가로x세로): 280x1100mm</t>
+  </si>
+  <si>
+    <t>AlwfjLOgqx432529</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 115AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 45분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 초콜릿브라운메탈릭 / 무게: 2.6kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 50분(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 거치대 / [부가] 먼지통용량: 0.8L / 색상: 다크브로도 / 무게: 2.8kg / 크기(가로x세로x깊이): 260x1100x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 90W / [배터리] 분리형 / 리튬이온 / 용량: 2450mAh / 충전시간: 4시간 / 사용시간: 1시간20분(개당) / [필터] 헤파필터 / H13급 / 2단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 마쉬멜로우+화이트 / 무게: 0.9kg / 크기(가로x세로x깊이): 222x1020x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 115AW / 소비전력: 425W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 업탑어댑터 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 에어본실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 100AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 30분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 도킹스테이션 / [부가] 무게: 2.32kg / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 카펫 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 스터번더트 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 거치대 / [부가] 먼지통용량: 0.8L / 색상: 텅스텐 / 무게: 3kg / 크기(가로x세로x깊이): 260x1100x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [기능] 프리볼트 / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 110V / 변환어댑터: 필요 / 무게: 2.58kg / 크기(가로x세로x깊이): 250x1244x224mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 22000Pa / 소비전력: 335W / [배터리] 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / [기능] 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 라벤더 / 무게: 1.55kg / 크기(가로x세로): 221x1191mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 100AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [구성] 카본파이버 / 솔형 / 도킹스테이션 / [부가] 색상: 실버 / 무게: 2.1kg / 크기(가로x세로x깊이): 208x1180x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 카펫 / 침구 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 브러쉬: 듀얼액션, 소프트액션, 솔형, 틈새, 침구 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아쿠아블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 450W / [배터리] 용량: 3000mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 1.6kg / 크기(가로x세로): 202x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간: 4시간(개당) / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 0.98kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1050x135mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새 / 싸이클론 / 사용시간: 15~30분 / 배터리용량: 2,500mAh / 충전시간: 4~5시간 / 크기: 415x90mm / 무게: 550g / 색상: 화이트, 진그레이</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 소프트핑크 / 무게: 3.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 110AW / 흡입력: 22000Pa / 소비전력: 335W / [배터리] 내장형 / 리튬이온 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 7단계여과 / [기능] 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 화이트 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x221mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 최대출력: 180W / 3중필터 / 추가노즐: 틈새, 솔브러쉬 / 베어툴사양 / 2단 속도 조절 / 플렉시블 튜브 / 크기: 150x182x218mm / 무게: 1,400g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 충전시간: 10시간 / 사용시간: 10~15분(개당) / [필터] 헤파필터 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 블랙+오렌지 / 무게: 0.8kg / 크기(가로x세로x깊이): 145x440x115mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 35W / [배터리] 충전시간: 8시간 / 사용시간: 5~10분(개당) / [구성] 바닥 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 440x150x130mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2200mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 거치대 / 프리볼트 / 소비전력: 25W / [부가] 색상: 화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 296x1114x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 그레이 / 무게: 2.32kg / 크기(가로x세로x깊이): 310x700x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 에보니블랙 / 무게: 2.45kg / 크기(가로x세로x깊이): 299x689x165mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 1100mAh / 충전시간: 2시간 / 사용시간: 1시간30분(개당) / [기능] 청소모드: UV살균 / 소비전력: 9W / [부가] 무게: 0.453kg / 크기(가로x세로x깊이): 80x530x60mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 74W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 20분 / 집진필터 / 배터리용량: 5,000mAH / 충전시간: 3.5시간 / 소음: 72dB / 보조배터리겸용</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 1시간30분(개당) / [기능] 각도조절 / 셀프스탠딩 / 프리볼트 / 소비전력: 25W / [부가] 색상: 블랙 / 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 293x1100x130mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 바닥롤러 / 싸이클론 / 흡입력: 7000Pa / 헤파필터 / H13급 / 3단계여과 / 소비전력: 13.2W / [부가] 먼지통용량: 0.3L / 색상: 화이트 / 무게: 1.3kg / 배터리잔량확인 / 크기(가로x세로x깊이): 255x170x110mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 거치대 / 싸이클론 / 소비전력: 250W / [부가] 물통용량: 0.82L / 색상: 실버+블루 / 무게: 4.9kg / 오토클리닝 / 크기(가로x세로x깊이): 309x1155x307mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 타이탄블루 / 무게: 3kg / 크기(가로x세로x깊이): 303x690x162mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 100AW / [배터리] 분리형 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 스터번더트 / 틈새 / 매트리스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 색상: 오렌지 / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15~28분 / 충전시간: 4~5시간 / 색상: 블랙, 스카이블루, 화이트 / 크기: 415mm / 무게: 520g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 최대출력: 120W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전시간: 2시간30분 / 충전방식: USB C타입 / 크기: 73x76x336mm / 무게: 610g</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 50분(개당) / [기능] 물분사 / LED라이트 / 프리볼트 / [부가] 색상: 화이트 / 무게: 2.4kg / 110V / 변환어댑터: 필요</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 20000Pa / 소비전력: 400W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 60분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 스틱형 / 무선형 / 소비전력: 30W / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 1시간40분(개당) / [기능] 프리볼트 / [부가] 색상: 화이트 / 완전방수 / 브러쉬: 평면, 틈새, 스크럽</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.58kg / 크기(가로x세로x깊이): 250x1264x224mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 7,000Pa / 최대출력: 90W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전방식: USB C타입 / 충전시간: 2시간30분 / 크기: 73x76x336mm / 무게: 700g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+실버 / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.15L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / [기능] 자동물공급 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 색상: 블랙 / 무게: 2.6kg / 일체형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 최대출력: 40W / 사용시간: 30분 / 40,000RPM / 배터리용량: 6,000mAh / 소음: 80dB / 충전시간: 3시간 / 크기: 48x79x180mm / 무게: 300g / 색상: 블랙, 블루</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 160AW / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 토크드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 에보니블랙 / 무게: 2.45kg / 크기(가로x세로x깊이): 299x689x165mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 42분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 스페이스틸 / 무게: 3.22kg / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 색상: 블랙 / 무게: 2.6kg / 분리형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 소프트샌드 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x146mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>XocrJqhP8b766540</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 35W / [배터리] 충전시간: 8시간 / 사용시간: 5~10분(개당) / [구성] 바닥 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 440x150x130mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블랙 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x860x256mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 17분 / 충전방식: 시거잭, 220V / BLCD모터 / 충전시간: 5시간30분 / 크기: 93x439mm / 무게: 505g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 70W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 18분 / 색상: 그린, 블랙, 화이트 / 60ml 먼지통 / 배터리 표시등</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 185AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 2시간30분 / 사용시간: 25분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 거치대 / 흡입력: 6000Pa / 헤파필터 / 3단계여과 / [부가] 무게: 1.3kg / 크기(가로x세로): 270x324mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 50AW / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [필터] 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 서페이스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 퍼플 / 무게: 1.9kg / 크기(가로x세로x깊이): 208x1077x92mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 사용시간: 40분(개당) / [기능] 소비전력: 80W / [부가] 색상: 화이트 / 무게: 3.2kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1190x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x146mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2200mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 거치대 / 프리볼트 / 소비전력: 25W / [부가] 색상: 화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 296x1114x220mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 코드길이: 4.5m / 충전시간: 2.5시간 / 크기: 73x73x305mm / 무게 : 703g</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 12분(고속),25분(저속) / 리튬이온배터리 / 색상: 바닐라화이트, 메탈그레이 / 크기: 56x330mm / 무게: 540g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 150AW / 흡입력: 26000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 소비전력: 48W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 10분(개당) / [부가] 무게: 0.76kg / 크기(가로x세로x깊이): 103x317x174mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 소프트샌드 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 22000Pa / 소비전력: 250W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 무게: 2.2kg / 크기(가로x세로x깊이): 260x1140x214mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 1시간20분(개당) / [기능] 각도조절 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 네이비 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 10000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 100V / 변환어댑터: 필요 / 색상: 화이트 / 무게: 2kg / 크기(가로x세로x깊이): 210x1040x104mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 쉘화이트 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 450W / [배터리] 용량: 3000mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 1.6kg / 크기(가로x세로): 202x1226mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 80분(개당) / [기능] 각도조절 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 화이트 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 29000Pa / 소비전력: 380W / 분리형 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 폴라나이트그레이, 미드나이트블랙 / 무게: 2.4kg / UV살균 / 크기(가로x세로x깊이): 255x1150x200mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 스틱형 / 무선형 / 소비전력: 8W / [배터리] 리튬이온 / 용량: 1950mAh / 충전시간: 4~5시간 / 사용시간: 50분(개당) / [부가] 무게: 0.86kg / 생활방수 / 브러쉬: 원형, 평면, 틈새</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 흡입력: 185AW / 흡입력: 27000Pa / 소비전력: 550W / [배터리] 내장형 / 용량: 3000mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.25L / 색상: 블랙 / 무게: 1.65kg / 크기(가로x세로): 200x1226mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 120W / [배터리] 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 28분(개당) / [필터] 헤파필터 / H13급 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.09L / 색상: 화이트 / 무게: 0.52kg / 크기(가로x세로x깊이): 75x415x70mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 썬옐로우 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 9000Pa / 소비전력: 120W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 45분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 17000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2kg / 크기(가로x세로x깊이): 274x1150x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 60W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 20분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 144x387x136mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로): 258x1226mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150AW / 흡입력: 26000Pa / [배터리] 분리형 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트, 레드</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 151AW / [배터리] 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1241x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 분리형 / 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [필터] 6단계여과 / [기능] 디스플레이표시창 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.97kg / 크기(가로x세로x깊이): 261x1261x250mm</t>
-  </si>
-  <si>
-    <t>로봇청소기 / 흡입+걸레 / [센서] 카메라1개 / dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 1500Pa / 용량: 5200mAh / 충전시간: 6시간30분 / 사용시간: 3시간(개당) / 헤파필터 / 3단계여과 / 소음: 67dB / 소비전력: 40W / [기능] 스마트폰제어: 간편업데이트, 금지구역, 원격예약 / 바닥감지 / 자동충전 / 자동먼지비움 / 음성안내 / [부가] 먼지통용량: 0.42L / 물통용량: 0.24L / 색상: 블랙 / 무게: 4.6kg / 무선형 / 크기(가로x세로x깊이): 353x93.6x353mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [필터] 6단계여과 / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 200W / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1045x240mm</t>
-  </si>
-  <si>
-    <t>nxHfWUkUok287642</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 185AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈레드 / 무게: 2.95kg / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 0.8kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 미세먼지인증(SLG) / 색상: 블랙 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 듀얼싸이클론 / BLDC모터 / 흡입력: 160AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 4시간30분 / 사용시간: 1시간5분(개당) / [필터] 헤파필터 / 6단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 펫 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.7L / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1096x198mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2150mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 물분사 / [부가] 색상: 블랙 / 무게: 3.4kg / 스위블기능 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 450x1230x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155W / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 40AW / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 5시간 / 사용시간: 1시간(개당) / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / [부가] 색상: 퍼플 / 무게: 2.75kg / 크기(가로x세로x깊이): 283x1030x217mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 인버터모터 / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간30분 / 사용시간: 20분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 메탈릭골드 / 무게: 2.9kg / 크기(가로x세로x깊이): 190x1105x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 3500Pa / 소비전력: 100W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 3시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / [구성] 솔형 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 0.48kg / 크기(가로x세로): 98x395mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 유선형 / 전선길이: 7.6m / [부가] 물통용량: 0.82L / 색상: 실버+블루 / 무게: 5kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 7000Pa / 소비전력: 120W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.8kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 19000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
+    <t>6JjC8rB7BK352461</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 6430mAh / 충전시간: 8시간 / 사용시간: 1시간30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / DC모터 / 흡입력: 8500Pa / 3단계여과 / [부가] 색상: 레드, 네이비 / 무게: 4.6kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 흡입력: 35AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 12분(개당) / [필터] 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 1.38kg / 피벗노즐 / 크기(가로x세로x깊이): 140x270x170mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론에어 / 사용시간: 42분(개당) / [필터] 2단계여과 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 1.3kg</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 60분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+핑크 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 160W / 소비전력: 160W / [배터리] 분리형 / 리튬이온 / 용량: 2150mAh / 충전시간: 4시간30분 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 무게: 3.7kg / 크기(가로x세로x깊이): 220x1150x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 메탈레드 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+골드 / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 트윈싸이클론 / 흡입력: 9000Pa / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 도킹스테이션 / [부가] 색상: 레드 / 무게: 1.89kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 아이언그레이 / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 브론즈 / 무게: 2.5kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 18000Pa / 소비전력: 250W / [배터리] 리튬이온 / 충전시간: 4~6시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / [구성] 바닥 / 카펫 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.11kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 45분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 텅스텐 / 무게: 2.6kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 26500Pa / 소비전력: 435W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 2시간30분 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / 6단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아이언그레이 / 무게: 2.6kg / 일체형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 배터리: 리튬이온 / 용량: 2200mAh / 충전시간: 3~4시간 / 사용시간: 30분(개당) / [기능] 물분사 / 셀프스탠딩 / 거치대 / 소비전력: 120W / [부가] 무게: 3kg / 오토클리닝</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 판타지실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 60분(개당) / [기능] 가구손상방지 / 셀프스탠딩 / 풋터치버튼 / 소비전력: 30W / [부가] 색상: 화이트, 그린, 오렌지 / 무게: 3.1kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 판타지실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 거치대 / [부가] 색상: 보헤미안레드 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / 소비전력: 37W / [배터리] 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 50분(개당) / [부가] 색상: 화이트 / 무게: 1.1kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 90W / [배터리] 분리형 / 리튬이온 / 용량: 2450mAh / 충전시간: 4시간 / 사용시간: 1시간20분(개당) / [필터] 헤파필터 / H13급 / 2단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 펫 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 마쉬멜로우+화이트 / 무게: 0.9kg / 크기(가로x세로x깊이): 222x1020x200mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 인버터모터 / 소비전력: 90W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간30분 / 사용시간: 40분(강), 70분(약)(개당) / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 샤이니레드 / 무게: 2.8kg / 크기(가로x세로x깊이): 190x1105x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 다이렉트드라이브 / 솔형 / 틈새 / 도킹스테이션 / [부가] 무게: 2.5kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 거치대 / [부가] 먼지통용량: 0.8L / 색상: 텅스텐 / 무게: 3kg / 크기(가로x세로x깊이): 260x1100x160mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미스티화이트 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 7000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 20~30분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 110V / 변환어댑터: 필요 / 색상: 핑크 / 무게: 2.3kg / 크기(가로x세로): 280x1100mm</t>
-  </si>
-  <si>
-    <t>xqUHKQJAlG604036</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 130W / 소비전력: 400W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 에어본레드 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 카펫 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 업탑어댑터 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 스터번더트 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 50분(개당) / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 거치대 / [부가] 먼지통용량: 0.8L / 색상: 다크브로도 / 무게: 2.8kg / 크기(가로x세로x깊이): 260x1100x160mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 115AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 100AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 30분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 도킹스테이션 / [부가] 무게: 2.32kg / 크기(가로x세로x깊이): 250x1243x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 22000Pa / 소비전력: 335W / [배터리] 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / [기능] 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 라벤더 / 무게: 1.55kg / 크기(가로x세로): 221x1191mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 카펫 / 침구 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 155AW / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 485W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [기능] 프리볼트 / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 110V / 변환어댑터: 필요 / 무게: 2.58kg / 크기(가로x세로x깊이): 250x1244x224mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 45분(개당) / [필터] 3단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 초콜릿브라운메탈릭 / 무게: 2.6kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / [부가] 색상: 메탈실버 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 100AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [구성] 카본파이버 / 솔형 / 도킹스테이션 / [부가] 색상: 실버 / 무게: 2.1kg / 크기(가로x세로x깊이): 208x1180x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 115AW / 소비전력: 425W / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 40분(개당) / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 도킹스테이션 / [부가] 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 450W / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 브러쉬: 듀얼액션, 소프트액션, 솔형, 틈새, 침구 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 카펫 / 침구 / 굳은먼지 / 상부청소 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아쿠아블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 (2개) / 용량: 2750mAh / 충전시간: 2시간 30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 거치대 / 프리볼트 / [부가] 색상: 화이트 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 흡입력: 140W / 소비전력: 450W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 매트리스 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 블라썸핑크 / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 11000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 1L / 색상: 블루 / 무게: 2kg / 크기(가로x세로x깊이): 232x1172x193mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 타이탄블루 / 무게: 3.01kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2600mAh / 충전시간: 4시간40분 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.36L / 물통용량: 0.25L / 무게: 0.93kg / 물분사 / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 23000Pa / 소비전력: 420W / [배터리] 분리형 / 리튬이온 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 사용시간: 25분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 4500회(분당) / 바닥롤러 / 흡입력: 6000Pa / 헤파필터 / H13급 / [부가] 색상: 화이트 / 무게: 1.08kg / 크기(가로x세로x깊이): 225x230x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸실버 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 흡입력: 6,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 25분 / 코드길이: 3m / 충전방식: USB, 어댑터 / 충전시간: 3시간 / 색상: 블랙, 화이트 / 크기: 370x65mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 데님블루 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 30W / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 1시간40분(개당) / [기능] 프리볼트 / [구성] 연장툴 / [부가] 색상: 블랙 / 생활방수 / 각도조절</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+핑크 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 48W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 12분(개당) / [기능] 셀프스탠딩 / [부가] 색상: 에어본+내츄럴그레이 / 무게: 1kg / 크기(가로x세로x깊이): 342x265x119mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 화이트+그린 / 무게: 1.5kg / 건 습식 / 크기(가로x세로x깊이): 120x390x120mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 13000Pa / 소비전력: 13.5W / [배터리] 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 25분(개당) / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.15L / 색상: 화이트 / 무게: 0.512kg / 크기(가로x세로x깊이): 58x344x58mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 50AW / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [필터] 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 서페이스 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 골드 / 무게: 1.9kg / 크기(가로x세로x깊이): 208x1077x92mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,400Pa / 최대출력: 50W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18분 / 충전시간: 3시간 / 대용량리튬이온배터리 / 크기: 275x72x71mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 10W / [배터리] 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [부가] 색상: 화이트+핑크 / 무게: 0.34kg / 방수 / 브러쉬: 평면, 일반, 모서리, 극세사, 수세미, 스폰지, 연장툴 / 크기(가로x세로x깊이): 70x1130x95mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12V / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 20분</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 추가노즐: 솔브러쉬 / 사용시간: 18분 / 색상: 그린, 블랙, 화이트 / 60ml 먼지통 / 배터리 표시등</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / [배터리] 분리형 / 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 45분(개당) / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 140W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 거치대 / [부가] 무게: 2.35kg / 크기(가로x세로x깊이): 250x1210x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 25000Pa / 소비전력: 350W / [배터리] 분리형 / 리튬이온 / 용량: 2450mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.5kg / 크기(가로x세로x깊이): 241x1144x211mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 용량: 4000mAh / 사용시간: 1시간20분(개당) / [부가] 색상: 화이트 / 무게: 0.78kg / 방수 / 브러쉬: 벽면, 바닥, 틈새, 스펀지</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 33000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 사용시간: 2시간(개당) / [필터] 헤파필터 / H13급 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 화이트, 블랙 / 무게: 2.97kg / 물분사 / 크기(가로x세로x깊이): 265x1200x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 450W / [배터리] 분리형 / 용량: 2800mAh / 충전시간: 4시간 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.25L / 색상: 레드 / 무게: 1.67kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 11분(개당) / [기능] 프리볼트 / [구성] 거치대 / [부가] 색상: 샴페인 / 무게: 1.33kg / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 72W / [배터리] 니켈수소 / 충전시간: 5시간 / 사용시간: 15분(개당) / [기능] 배터리잔량표시 / [부가] 색상: 에어본+내츄럴그레이 / 무게: 1.2kg / 크기(가로x세로x깊이): 119x121x410mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 색상: 핑크 / 무게: 3.6kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 소비전력: 35W / [필터] 2단계여과 / [구성] 솔형 / 틈새 / [부가] 색상: 화이트+블루 / 무게: 1.5kg / 크기(가로x세로x깊이): 100x360x100mm</t>
+  </si>
+  <si>
+    <t>로봇청소기 / 흡입+걸레 / [센서] 카메라1개 / dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 2600Pa / 용량: 3200mAh / 충전시간: 4시간30분 / 사용시간: 1시간50분(개당) / 헤파필터 / 소비전력: 40W / [기능] 스마트폰제어: 간편업데이트, 금지구역, 원격예약 / 바닥감지 / 문턱등반 / 자동충전 / 음성안내 / [부가] 먼지통용량: 0.42L / 물통용량: 0.24L / 색상: 화이트, 블랙 / 무선형 / 크기(가로x세로x깊이): 353x93x353mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / 소비전력: 170W / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 60분(개당) / [기능] 셀프스탠딩 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 메탈릭사틴골드 / 무게: 2.7kg / 롱리치툴 / 크기(가로x세로x깊이): 260x1100x165mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 셀프스탠딩 / 배터리잔량표시 / 거치대 / 흡입력: 9000Pa / 헤파필터 / H11급 / 소비전력: 200W / [부가] 색상: 블랙 / 무게: 3.8kg / 크기(가로x세로x깊이): 250x1100x170mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 사용시간: 50분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 소비전력: 80W / [부가] 색상: 화이트, 와인 / 무게: 3.2kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1230x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 오렌지 / 무게: 1.3kg</t>
+  </si>
+  <si>
+    <t>C4bIgEsNdJ801005</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 12000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 2시간(개당) / [구성] 거치대 / [부가] 색상: 그레이 / 무게: 0.8kg / 방수 / 브러쉬: 스펀지, 돔형, 틈새, 평면 / 크기(가로x세로x깊이): 150x1100x700mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 120W / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 45분(개당) / [구성] 바닥 / 솔형 / 연장툴 / [부가] 색상: 화이트, 네이비</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 25AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 17분(개당) / [구성] 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 1.47kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 14분(개당) / [필터] 3단계여과 / [부가] 먼지통용량: 0.5L / 색상: 워터멜론레드메탈릭 / 무게: 1.1kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 1100mAh / 충전시간: 2시간 / 사용시간: 1시간30분(개당) / [기능] 청소모드: UV살균 / 소비전력: 9W / [부가] 무게: 0.388kg / 크기(가로x세로x깊이): 80x530x60mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 10W / [배터리] 리튬이온 / 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [부가] 색상: 그레이 / 무게: 2kg / 방수 / 브러쉬: 틈새, 평면, 라운드, 극세사, 수세미, 스펀지 / 크기(가로x세로x깊이): 95x900x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 소비전력: 120W / [배터리] 분리형 / 리튬이온 / [기능] 셀프스탠딩 / [구성] 바닥 / 틈새 / [부가] 먼지통용량: 0.25L / 색상: 뉴트럴그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 19000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 블루 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 25W / [배터리] 충전시간: 10시간 / 사용시간: 8분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 레드 / 건습식 / 크기(가로x세로x깊이): 110x120x390mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / [부가] 물통용량: 0.15L / 색상: 화이트 / 무게: 2.9kg / 크기(가로x세로x깊이): 360x1100x180mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [기능] 디스플레이표시창 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.6kg / 크기(가로x세로): 200x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 120W / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.1L / 색상: 화이트 / 무게: 0.575kg</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 리튬이온 / 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 2시간30분(개당) / [기능] 배터리잔량표시 / 프리볼트 / [부가] 색상: 화이트 / 무게: 1.75kg / 방수 / 브러쉬: 바닥, 틈새, 원형 / 크기(가로x세로x깊이): 72x1030x72mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 170W / [배터리] 분리형 / 리튬이온 / [필터] 헤파필터 / [기능] 셀프스탠딩 / 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.25L / 색상: 메탈블랙 / 무게: 2.8kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 84W / [배터리] 리튬이온 / 용량: 2150mAh / 충전시간: 3시간30분 / 사용시간: 1시간30분(개당) / [기능] 배터리잔량표시 / 프리볼트 / [부가] 색상: 블랙, 화이트 / 무게: 0.76kg / 생활방수 / 각도조절 / 압력감지센서 / 브러쉬: 물걸레, 원형, 틈새</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 20000Pa / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로): 258x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 25W / 소비전력: 180W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.9kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 35W / [배터리] 충전시간: 8시간~10시간 / 사용시간: 12~15분(개당) / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 블랙 / 무게: 0.8kg / 건습식 / 크기(가로x세로x깊이): 360.3x105.4x111.6mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 화이트 / 무게: 3.7kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디형 / 무선형 / [배터리] 사용시간: 60분(개당) / [부가] 색상: 블루 / 무게: 0.53kg / 건전지식 / 브러쉬: 미세, 틈새, 강력, 수세미 / 크기(가로x세로x깊이): 245x650x100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+민트 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / 사용시간: 20~28분 / 충전시간: 4시간 / 무게: 580g / 색상: 그레이, 화이트, 블랙</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 소비전력: 80W / [부가] 색상: 네이비 / 무게: 3.5kg / 모터과열방지 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 120W / LED라이트 / 사용시간: 30분 / 색상: 블랙, 화이트 / 크기(높이x길이): 145x165mm / 무게: 400g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 30W / [배터리] 분리형 / 리튬이온 / 사용시간: 20분(개당) / [부가] 먼지통용량: 0.65L / 색상: 블루 / 무게: 1.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [부가] 색상: 블랙 / 무게: 2.31kg / 크기(가로x세로x깊이): 260x1092x220 mm</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / 소비전력: 80W / [기능] BLDC모터 / 충전시간: 1시간15분 / 사용시간: 35분(개당) / 용량: 2500mAh / 작동압력: 25bar / [부가] 색상: 오렌지 / 무게: 2.5kg / 배터리잔량표시 / 과열방지 / 브러쉬: 회오리노즐, 하부세척커넥터, 호스</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 추가노즐: 솔브러쉬 / 사용시간: 30분 / 소음: 70dB / 크기: 65x84x223.5mm / 무게: 378g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H14급 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 물걸레 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 410x805x165mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 7분(개당) / [부가] 색상: 블루 / 크기(가로x세로x깊이): 273x170x77mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 충전시간: 5시간 / 사용시간: 15분(개당) / [구성] 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 0.8kg / 크기(가로x세로x깊이): 425x95x90mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 75분(개당) / [구성] 바닥 / 틈새 / [부가] 색상: 클리어화이트, 옐로우그린 / 무게: 1.25kg / 크기(가로x세로x깊이): 220x963x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 4500Pa / 소비전력: 80W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 20분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙, 화이트 / 무게: 0.8kg</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 220AW / 소비전력: 545W / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [필터] 6단계여과 / [기능] 디스플레이표시창 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 핑크 / 크기(가로x세로x깊이): 261x1261x250mm</t>
   </si>
   <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 84W / 용량: 2150mAh / 충전시간: 2시간30분 / 사용시간: 1시간30분(개당) / [기능] 배터리잔량표시 / [부가] 색상: 화이트 / 무게: 1.82kg / 압력감지센서 / 방수 / 브러쉬: 일반, 포인트, 라운드, 평면</t>
+  </si>
+  <si>
+    <t>UDRszWll4v705599</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 300W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 레드, 블랙 / 무게: 3.89kg / 크기(가로x세로x깊이): 239x1255x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 니켈수소 / 충전시간: 8~10시간 / 사용시간: 15분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] 배터리잔량표시 / [구성] 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 퍼플, 오렌지레드 / 무게: 1kg / 크기(가로x세로x깊이): 380x100x120mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 내장형 / 리튬이온 / 용량: 2600mAh / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 4단계여과 / [기능] 자동물공급 / LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.46L / 물통용량: 0.26L / 색상: 레드 / 무게: 0.93kg / 크기(가로x세로x깊이): 245x990x185mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 234x1056x163mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 충전방식: 시거잭 / 크기: 298x70mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 각도조절 / 소비전력: 70W / [부가] 색상: 블랙, 화이트 / 무게: 3.14kg / 크기(가로x세로x깊이): 411x1105x192mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / 소비전력: 10W / [배터리] 리튬이온 / 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 프리볼트 / [부가] 색상: 그레이 / 방수 / 브러쉬: 모서리, 일반, 평면, 스폰지, 극세사, 수세미</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 85AW / 흡입력: 18000Pa / 소비전력: 300W / [배터리] 내장형 / 용량: 2000mAh / 충전시간: 3시간30분 / 사용시간: 48분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.4L / 색상: 화이트+레드 / 무게: 1.4kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 소비전력: 450W / [배터리] 분리형 / 용량: 3000mAh / 사용시간: 1시간5분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.23L / 색상: 화이트 / 무게: 1.2kg / 크기(가로x세로x깊이): 256x1286x214mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 소비전력: 500W / [배터리] 용량: 2500mAh / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 업탑어댑터 / 거치대 / [부가] 색상: 레드 / 무게: 2.3kg / 크기(가로x세로x깊이): 256x1243x133mm</t>
+  </si>
+  <si>
     <t>차량용청소기 / 유무선 / 12V / 흡입력: 4,800Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전방식: 시거잭, 220V / 충전시간: 3~4시간 / 크기: 260x200x80mm / 무게: 880g</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 흡입력: 35AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 12분(개당) / [필터] 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 1.38kg / 피벗노즐 / 크기(가로x세로x깊이): 140x270x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 45분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 물통용량: 0.26L / 색상: 화이트 / 무게: 3.5kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 415x1200x235mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 24분(개당) / [필터] 3단계여과 / [구성] 거치대 / [부가] 색상: 텅스텐메탈릭 / 무게: 1.13kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 124x410x137mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 23000Pa / 소비전력: 420W / [배터리] 분리형 / 리튬이온 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 10W / [배터리] 용량: 2500mAh / 사용시간: 1시간(개당) / [부가] 색상: 그레이 / 방수 / 브러쉬: 일반, 평면, 모서리, 스펀지, 수세미, 극세사</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 261x1280x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 62W / [배터리] 충전시간: 8시간 / 사용시간: 5~10분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 265x425x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] BLDC모터 / 소비전력: 90W / [배터리] 리튬이온 / 사용시간: 57분(개당) / [구성] 바닥 / 틈새 / 연장툴 / [부가] 무게: 1.3kg / 색상: 라이트그레이, 라이트그린, 레드, 블루</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 11분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 블루, 오렌지 / 무게: 1.28kg / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 용량: 1000mAh / 충전시간: 4시간 / 사용시간: 60분(개당) / [기능] 프리볼트 / [부가] 무게: 1.2kg / 생활방수 / 브러쉬: 솔형, 스펀지패드, 물걸레패드, 수세미패드, 만능패드, 광택패드 / 크기(가로x세로x깊이): 180x1260x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디형 / 무선형 / [배터리] 용량: 1800mAh / 사용시간: 3시간(개당) / [구성] 거치대 / [부가] 색상: 화이트 / 브러쉬 : 평면, 틈새, 스크럽 / 방수 / 각도조절 / 크기(가로x세로x깊이): 150x1000x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 5400Pa / [배터리] 분리형 / 리튬이온 / 충전시간: 22분 / 사용시간: 40분(개당) / [기능] 배터리잔량표시 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.3kg / 스위블헤드 / 크기(가로x세로x깊이): 151x1004x151mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 17000Pa / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 에어컴프레셔 / 크기(가로x세로x깊이): 80x1040x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 29000Pa / 소비전력: 400W / [배터리] 분리형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 25분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2.11kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 2,000Pa / 최대출력: 35W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전방식: USB C타입 / 색상: 그레이, 그린, 블루, 블랙 / 충전시간: 4시간 / 무게: 366g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 5900Pa / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 15분(개당) / [구성] 솔형 / 틈새 / [부가] 먼지통용량: 0.1L / 색상: 블랙 / 무게: 0.55kg / 에어컴프레셔</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2500mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 청소모드: UV살균, 진동, 쓸기, 흡입 / 리튬이온 / 속도조절 / 원터치먼지통분리 / 싸이클론 / BLDC모터 / 헤파필터 / 3단계여과 / 소비전력: 350W / [부가] 알레르기인증(BAF) / 무게: 1.2kg / 프리볼트 / 배터리잔량표시 / 크기(가로x세로x깊이): 127x228x319mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 무게: 1.5kg / 크기(가로x세로x깊이): 230x1040x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 200AW / 흡입력: 29000Pa / 소비전력: 535W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 6단계여과 / [기능] 먼지감지센서 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 실버 / 무게: 1.6kg / 크기(가로x세로x깊이): 278x1248x225mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 110AW / 흡입력: 22000Pa / 소비전력: 335W / [배터리] 내장형 / 리튬이온 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 7단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 화이트 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x221mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / [기능] 자동물공급 / IoT기능 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 색상: 딥그레이/블랙 / 무게: 2.6kg / 분리형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 7분(개당) / [부가] 색상: 블루 / 크기(가로x세로x깊이): 273x170x77mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / 사용시간: 20~28분 / 충전시간: 4시간 / 무게: 580g / 색상: 그레이, 화이트, 블랙</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 74W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 20분 / 집진필터 / 배터리용량: 5,000mAH / 충전시간: 3.5시간 / 소음: 72dB / 보조배터리겸용</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 22000Pa / 소비전력: 450W / [배터리] 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [기능] 디스플레이표시창 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.6kg / 크기(가로x세로): 200x1226mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 11AW / [배터리] 리튬이온 / 충전시간: 4시간 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 거치대 / [부가] 색상: 블랙 / 무게: 1kg</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 각도조절 / 프리볼트 / [부가] 색상: 블랙 / 무게: 1.6kg / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1070x140mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / [기능] 디스플레이표시창 / LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 블랙 / 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 26000Pa / 소비전력: 280W / [배터리] 리튬이온 / 용량: 2200mAh / [필터] 6단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 옐로우 / 무게: 2.7kg / 크기(가로x세로x깊이): 263x1170x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 배터리잔량표시 / [부가] 무게: 0.7kg / 유리창전용 / 폴리퍼파우더코팅</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 사용시간: 40분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 카펫 / 틈새 / [부가] 무게: 2.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 420W / [배터리] 리튬폴리머 / 용량: 3610mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 레드 / 무게: 1.4kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 리튬이온 / 충전시간: 4~5시간 / 사용시간: 40분(개당) / [필터] 듀얼헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.5L / 색상: 골드 / 무게: 2.9kg / 크기(가로x세로x깊이): 261x1182x207mm</t>
+  </si>
+  <si>
+    <t>7VTD9NEOu4632686</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 배터리잔량표시 / 거치대 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 40분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 대상감지센서 / 바닥롤러 / 흡입력: 7000Pa / 헤파필터 / 2단계여과 / 소비전력: 90W / [부가] 먼지통용량: 0.5L / 색상: 네이비 / 무게: 1.3kg / 모터과열방지 / 과충전방지 / 과방전방지 / 미세먼지감지센서 / 크기(가로x세로x깊이): 260x175x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 60W / [배터리] 니켈카드뮴 / 충전시간: 8시간 / 사용시간: 20분(개당) / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 화이트 / 무게: 1.28kg / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 17000Pa / [필터] 헤파필터 / [구성] 바닥 / [부가] 색상: 블랙 / 무게: 0.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 소비전력: 25W / [배터리] 충전시간: 10시간 / 사용시간: 15분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 골드브라운 / 무게: 1.3kg / 크기(가로x세로x깊이): 110x390x120mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 20AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 11분(개당) / [필터] 2단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.56L / 색상: 블랙 / 무게: 1.42kg / 크기(가로x세로): 190x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 45분(개당) / [기능] 물분사 / LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 소비전력: 45W / [부가] 색상: 블랙, 화이트 / 무게: 3.9kg / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 400x1110x280mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 인버터모터 / 소비전력: 190W / [배터리] 사용시간: 20분(개당) / [기능] LED라이트 / [구성] 바닥 / 굳은먼지 / 틈새 / 매트리스 / [부가] 색상: 빈티지와인 / 크기(가로x세로x깊이): 270x1105x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 22000Pa / 소비전력: 350W / 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 최대출력: 100W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 13분 / 나노필터 / 충전시간: 3시간 / 배터리용량: 6,000mAh / 크기: 326x77mm / 무게: 689g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 충전시간: 8시간충전 / 사용시간: 사용시간:12~15분사용(개당) / [부가] 색상: 오렌지 / 은나노집진필터</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간 / 사용시간: 45분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 1.35kg / 크기(가로x세로x깊이): 256x1172x217xmm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 150W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5~6시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 6000Pa / 소비전력: 45W / [배터리] 리튬이온 / 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.9L / 색상: 화이트 / 무게: 0.9kg / 크기(가로x세로x깊이): 130x1130x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 12000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.8L / 무게: 2.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 18000Pa / [배터리] 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 레드, 아이언그레이, 실버 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 분리형 / 리튬이온 / 사용시간: 12분(개당) / [부가] 색상: 화이트 / 무게: 0.9kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / [배터리] 분리형 / 리튬이온 / 충전시간: 5시간 / 사용시간: 45분(개당) / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙+옐로우 / 무게: 2.2kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 13분 / 충전방식: 시거잭 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 사용시간: 60분(개당) / [기능] 프리볼트 / [구성] 연장툴 / [부가] 색상: 화이트 / 무게: 1.5kg / 브러쉬: 돔형, 모서리, 평면, 연장관</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 그레이 / 무게: 2.32kg / 크기(가로x세로x깊이): 310x700x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / [부가] 먼지통용량: 0.42L / 색상: 아이언그레이 / 무게: 2.5kg / 크기(가로x세로x깊이): 299x689x165mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 6450mAh / 충전시간: 7시간 / 사용시간: 물걸레: 4시간, 진공+물걸레: 40분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / DC모터 / 3단계여과 / 소비전력: 17W / [부가] 색상: 네이비, 브라운 / 무게: 4.6kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미스티화이트 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>진공청소기 / 무선형 / [성능] 헤파필터 / 먼지통 / 먼지통용량: 1.2L / [구성] 브러쉬: 플로어 / 보조브러쉬: 틈새 / [부가] 무게: 4.1kg / 충전시간: 3~5시간 / 사용시간: 50분 / 프리볼트 / 크기(가로x세로x깊이): 376x292x259mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 코드길이: 4.5m / 색상: 네이비, 블랙 / 크기: 375x84x86mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 25000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트, 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 240x1140x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 21000Pa / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 연장툴 / 거치대 / [부가] 색상: 레드 / 무게: 2.9kg / 크기(가로x세로x깊이): 250x1090x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 분리형 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.26L / 색상: 옐로우 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 핑크, 그레이 / 무게: 3.7kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6500Pa / 추가노즐: 솔브러쉬, 연장호스 / 사용시간: 30분 / 무게 : 1,040g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 흡입력: 60W / [배터리] 충전시간: 8시간 / 사용시간: 9분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙+레드 / 크기(가로x세로x깊이): 200x138x400mm</t>
+  </si>
+  <si>
+    <t>T6LenYlIm8367829</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 15분 / 충전방식: USB C타입 / 배터리: 2,000Amh / 크기: 70mmx320mm / 무게: 576g</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디형 / 무선형 / [배터리] 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 1시간50분(개당) / [부가] 색상: 블랙, 화이트 / 무게: 0.4kg / 생활방수 / 브러쉬: 모서리, 평면, 스펀지수세미 / 크기(가로x세로x깊이): 110x205x50mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 100AW / [배터리] 분리형 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 색상: 퍼플 / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 무게: 2.6kg / 분리형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 6000Pa / 소비전력: 75W / [배터리] 용량: 2600mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 0.64kg / 크기(가로x세로x깊이): 65x400x65mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2150mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 소비전력: 80W / [부가] 색상: 화이트 / 무게: 3kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 150W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 색상 : 핑크, 브라운, 그레이, 화이트 / 크기: 191x111x65mm / 무게: 650g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 10000Pa / 소비전력: 125W / 용량: 2200mAh / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 화이트 / 무게: 1.6kg / 크기(가로x세로x깊이): 210x1155x180mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 200W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.24kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 120AW / 흡입력: 23000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 블랙 / 무게: 1.54kg / 크기(가로x세로x깊이): 250x1250x235mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 100AW / 소비전력: 350W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 30분(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 무게: 2.32kg / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 12000Pa / 소비전력: 160W / [필터] 헤파필터 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 퍼플 / 무게: 1.89kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / [성능] 싸이클론 / 소비전력: 600W / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블루 / 크기(가로x세로x깊이): 270x1220x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 8000Pa / 소비전력: 75W / [배터리] 용량: 2600mAh / 충전시간: 4시간 / 사용시간: 28분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.15L / 색상: 화이트, 블랙, 그레이 / 무게: 0.58kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / [배터리] 충전시간: 12시간 / 사용시간: 18분(개당) / [부가] 색상: 에어본화이트 / 무게: 2.9kg / 크기(가로x세로x깊이): 261x1100x193mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 26000Pa / 소비전력: 300W / [배터리] 분리형 / 리튬이온 / 용량: 2150mAh / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H14급 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 그레이 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1260x220mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 24분 / 먼지통: 100ml / 소음: 65dB / 충전시간: 3~4시간</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 소비전력: 30W / [부가] 색상: 블랙 / 무게: 1.8kg / 크기(가로x세로x깊이): 335x1100x180mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 60W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 60분 / 충전시간: 4시간 / 충전방식: USB C타입 / 크기: 189x79x131mm / 무게: 475g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 17000Pa / 소비전력: 250W / [배터리] 리튬이온 / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1024x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 흡입력: 160AW / [배터리] 분리형 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 무게: 2.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / 소비전력: 72W / [배터리] 니켈수소 / 충전시간: 5시간 / 사용시간: 18분(개당) / [필터] 헤파필터 / H12급 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 옐로우+블랙 / 무게: 2.9kg / 크기(가로x세로x깊이): 650x180x320mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] wpxm싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 15분(개당) / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 무게: 0.75kg / 5단계각도조절 / 크기(가로x세로x깊이): 440x100x100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 마호가니브론즈 / 무게: 3.36kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 18000Pa / 소비전력: 200W / [배터리] 분리형 / 리튬이온 / 충전시간: 5시간 / 사용시간: 50분(개당) / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2.5kg / 크기(가로x세로x깊이): 230x1150x210mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 20분 / 색상: 블랙 / 크기: 330x95x95mm / 무게: 500g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 90W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 3시간30분 / 사용시간: 25분(개당) / [필터] 헤파필터 / H14급 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 거치대 / [부가] 색상: 화이트, 레드, 그린 / 무게: 0.594kg / 크기(가로x세로x깊이): 237x1056x94mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 6000Pa / 소비전력: 45W / [배터리] 내장형 / 리튬이온 / 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.9L / 색상: 레드 / 무게: 0.75kg / 크기(가로x세로x깊이): 130x1130x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 더스팅 / 3in1 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.7L / 알레르기인증(BAF) / 색상: 인디고블루 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 40분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 소비전력: 30W / [부가] 물통용량: 0.2L / 색상: 화이트 / 무게: 2.1kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 340x1240x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 12000Pa / 소비전력: 90W / [배터리] 리튬이온 / 용량: 2500mAh / 사용시간: 35분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 네이비 / 무게: 0.8kg / 크기(가로x세로x깊이): 80x400x80mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간: 20분(개당) / [기능] 배터리잔량표시 / [부가] 물통용량: 0.4L / 색상: 옐로우 / 무게: 4.4kg / 셀프크리닝 / 크기(가로x세로x깊이): 320x1220x270mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 물분사 / 각도조절 / 배터리잔량표시 / 거치대 / 프리볼트 / 소비전력: 150W / [부가] 물통용량: 0.83L / 색상: 화이트+블루 / 무게: 5.2kg / 오토클리닝 / 크기(가로x세로x깊이): 260x1156x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 19000Pa / 소비전력: 180W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간30분 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 메트로블루, 메트로골드 / 무게: 1.5kg / 크기(가로x세로x깊이): 305x225x117mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 사용시간: 1시간(개당) / [부가] 색상: 화이트 / 무게: 1.46kg / 방수 / 브러쉬: 평면, 돔형, 코너 / 크기(가로x세로x깊이): 130x1110x60mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 40W / [배터리] 용량: 300mAh / 충전시간: 6시간30분 / 사용시간: 15분(개당) / [기능] 프리볼트 / [구성] 틈새 / [부가] 먼지통용량: 0.4L / 물통용량: 0.1L / 색상: 화이트 / 무게: 1kg / 건습식 / 크기(가로x세로x깊이): 137x405x144mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 185AW / [배터리] 분리형 / 리튬이온 / 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 업탑어댑터 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 쿠퍼컬러 / 무게: 2.95kg / 크기(가로x세로x깊이): 261x1280x250mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 소비전력: 30W / [부가] 색상: 블랙, 화이트 / 무게: 1.8kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 335x1100x180mm</t>
+  </si>
+  <si>
+    <t>Ix9UDI6VpU518702</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디형 / 무선형 / 색상: 화이트 / 건전지식 / 브러쉬: PP, 폴리셔, 스펀지 / 크기(가로x세로x깊이): 70x195x112mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2000mAh / 충전시간: 2~3시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 120W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [필터] 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 0.535kg / 크기(가로x세로x깊이): 73.4x360x73.4mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [기능] 물분사 / 각도조절 / 셀프스탠딩 / 소비전력: 44W / [부가] 색상: 화이트 / 무게: 1.7kg / 크기(가로x세로): 160x1140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 220W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 6시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 2.11kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / 소비전력: 80W / [부가] 색상: 블랙 / 무게: 3.5kg / 과열방지 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 460x1300x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 250W / [배터리] 분리형 / 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 화이트 / 무게: 1.43kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 120W / 추가노즐: 솔브러쉬, 연장호스 / 사용시간: 20~30분 / 무게: 500g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간: 5시간(개당) / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1250x135mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 용량: 1000mAh / 충전시간: 1시간 / [부가] 색상: 핑크 / 방수 / 브러쉬: 스펀지, 수세미, 청소솔, 광택솔</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 마호가니브론즈 / 무게: 3.4kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 5300Pa / 사용시간: 40분(개당) / [구성] 바닥 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.65L / 무게: 1.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 8000Pa / 소비전력: 100W / [배터리] 리튬이온 / 용량: 2600mAh / 충전시간: 5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 1.05kg / 크기(가로x세로x깊이): 220x1120x80mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 물걸레 / 소비전력: 17W / [배터리] 리튬이온 / 용량: 6300mAh / 충전시간: 11시간 / 사용시간: 40분(개당) / [필터] 3단계여과 / [기능] LED라이트 / [부가] 색상: 투톤레드, 화이트 / 무게: 4.4kg / 크기(가로x세로x깊이): 360x1170x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 200AW / 흡입력: 25000Pa / 소비전력: 550W / [배터리] 분리형 / 충전시간: 4시간30분 / 사용시간: 1시간10분(개당) / 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 퍼플</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 86W / [배터리] 니켈카드뮴 / 충전시간: 8시간 / 사용시간: 15분(개당) / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 실버 / 크기(가로x세로x깊이): 560x170x220mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 25분(개당) / [기능] 물분사 / 셀프스탠딩 / 배터리잔량표시 / BLDC모터 / 헤파필터 / 소비전력: 140W / [부가] 색상: 화이트 / 오토클리닝 / 크기(가로x세로x깊이): 308x1100x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / [기능] BLDC모터 / 충전시간: 1시간15분 / 사용시간: 24분(개당) / 용량: 2500mAh / 작동압력: 25bar / 연장관 / [부가] 색상: 오렌지 / 무게: 2.5kg / 배터리잔량표시 / 브러쉬: 회오리노즐, 하부세척커넥터, 호스 / 크기(가로x세로x깊이): 92x12x22mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 색상: 아이보리 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 패드: 일반, 초극세사 / 크기(가로x세로x깊이): 410x11800x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 20000Pa / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 210x1040x104mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 75W / [배터리] 용량: 2150mAh / 사용시간: 30분(개당) / [필터] 헤파필터 / 2단계여과 / [기능] 셀프스탠딩 / LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 블랙, 화이트 / 크기(가로x세로x깊이): 125x510x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 소프트샌드 / 무게: 3.6kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / 소비전력: 12.6W / [부가] 물통용량: 0.22L / 색상: 화이트 / 무게: 3.3kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1260x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 사틴화이트 / 무게: 3.6kg</t>
   </si>
   <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 1시간30분(개당) / [기능] 각도조절 / 셀프스탠딩 / 프리볼트 / 소비전력: 25W / [부가] 색상: 블랙 / 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 293x1100x130mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 6430mAh / 충전시간: 8시간 / 사용시간: 1시간30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / DC모터 / 흡입력: 8500Pa / 3단계여과 / [부가] 색상: 레드, 네이비 / 무게: 4.6kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 25000Pa / 소비전력: 350W / [배터리] 분리형 / 리튬이온 / 용량: 2450mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.5kg / 크기(가로x세로x깊이): 241x1144x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 소비전력: 25W / [배터리] 니켈카드뮴 / 충전시간: 10~12시간 / [구성] 카펫 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블루 / 무게: 0.683kg / 크기(가로x세로x깊이): 95x350x105mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 거치대 / 싸이클론 / 소비전력: 250W / [부가] 물통용량: 0.82L / 색상: 실버+블루 / 무게: 4.9kg / 오토클리닝 / 크기(가로x세로x깊이): 309x1155x307mm</t>
-  </si>
-  <si>
-    <t>업소용청소기 / 고압세척기 / 무선형 / 소비전력: 80W / [기능] BLDC모터 / 충전시간: 1시간15분 / 사용시간: 35분(개당) / 용량: 2500mAh / 작동압력: 25bar / [부가] 색상: 오렌지 / 무게: 2.5kg / 배터리잔량표시 / 과열방지 / 브러쉬: 회오리노즐, 하부세척커넥터, 호스</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 11000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 1L / 색상: 블루 / 무게: 2kg / 크기(가로x세로x깊이): 232x1172x193mm</t>
-  </si>
-  <si>
-    <t>5INgcr3170864402</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 3in1 / 거치대 / [부가] 먼지통용량: 0.7L / 알레르기인증(BAF) / 색상: 칠리레드 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 유무선 / 흡입력: 6,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 25분 / 코드길이: 3m / 충전방식: USB, 어댑터 / 충전시간: 3시간 / 색상: 블랙, 화이트 / 크기: 370x65mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 바닥롤러 / 싸이클론 / 흡입력: 7000Pa / 헤파필터 / H13급 / 3단계여과 / 소비전력: 13.2W / [부가] 먼지통용량: 0.3L / 색상: 화이트 / 무게: 1.3kg / 배터리잔량확인 / 크기(가로x세로x깊이): 255x170x110mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 소비전력: 120W / [배터리] 분리형 / 리튬이온 / [기능] 셀프스탠딩 / [구성] 바닥 / 틈새 / [부가] 먼지통용량: 0.25L / 색상: 뉴트럴그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 15분 / 크기: 67x67x310mm / 무게: 630g / 충전시간: 4~5시간</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간: 4시간(개당) / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 0.98kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1050x135mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 실버+핑크 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 24분(개당) / [필터] 3단계여과 / [구성] 거치대 / [부가] 색상: 텅스텐메탈릭 / 무게: 1.13kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 124x410x137mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 유무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 코드길이: 4.5m / 색상: 네이비, 블랙 / 크기: 375x84x86mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 1100mAh / 충전시간: 2시간 / 사용시간: 1시간30분(개당) / [기능] 청소모드: UV살균 / 소비전력: 9W / [부가] 무게: 0.453kg / 크기(가로x세로x깊이): 80x530x60mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 소비전력: 35W / [필터] 2단계여과 / [구성] 솔형 / 틈새 / [부가] 색상: 화이트+블루 / 무게: 1.5kg / 크기(가로x세로x깊이): 100x360x100mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 1100mAh / 충전시간: 2시간 / 사용시간: 1시간30분(개당) / [기능] 청소모드: UV살균 / 소비전력: 9W / [부가] 무게: 0.388kg / 크기(가로x세로x깊이): 80x530x60mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 멀티싸이클론 / BLDC모터 / 흡입력: 120AW / 흡입력: 20000Pa / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로): 258x1226mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 충전시간: 5시간 / 사용시간: 15분(개당) / [구성] 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 0.8kg / 크기(가로x세로x깊이): 425x95x90mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 화이트 / 무게: 3.7kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 사용시간: 25분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 4500회(분당) / 바닥롤러 / 흡입력: 6000Pa / 헤파필터 / H13급 / [부가] 색상: 화이트 / 무게: 1.08kg / 크기(가로x세로x깊이): 225x230x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 충전시간: 3시간 / 사용시간: 15분(개당) / [필터] 헤파필터 / [구성] 솔형 / 틈새 / 크기(가로x세로x깊이): 115x380x115mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 50AW / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 20분(개당) / [필터] 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 서페이스 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 골드 / 무게: 1.9kg / 크기(가로x세로x깊이): 208x1077x92mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 더스팅 / 3in1 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.7L / 알레르기인증(BAF) / 색상: 인디고블루 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 3in1 / 거치대 / [부가] 먼지통용량: 0.7L / 알레르기인증(BAF) / 색상: 아이언그레이 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 배터리잔량표시 / [부가] 무게: 0.7kg / 유리창전용 / 폴리퍼파우더코팅</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간 / 사용시간: 45분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 1.35kg / 크기(가로x세로x깊이): 256x1172x217xmm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 120W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [필터] 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 0.535kg / 크기(가로x세로x깊이): 73.4x360x73.4mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 450W / [배터리] 분리형 / 용량: 2800mAh / 충전시간: 4시간 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.25L / 색상: 레드 / 무게: 1.67kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 50분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / [부가] 물통용량: 0.15L / 색상: 화이트 / 무게: 2.9kg / 크기(가로x세로x깊이): 360x1100x180mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 18000Pa / [배터리] 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 레드, 아이언그레이, 실버 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 170W / [배터리] 분리형 / 리튬이온 / [필터] 헤파필터 / [기능] 셀프스탠딩 / 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.25L / 색상: 메탈블랙 / 무게: 2.8kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 70W / [배터리] 리튬이온 / 용량: 2200mAh / [필터] 2단계여과 / [구성] 솔형 / [부가] 먼지통용량: 0.12L / 색상: 화이트, 블랙 / 무게: 0.6kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 15000Pa / 소비전력: 90W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 3시간30분 / 사용시간: 25분(개당) / [필터] 헤파필터 / H14급 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 거치대 / [부가] 색상: 화이트, 레드, 그린 / 무게: 0.594kg / 크기(가로x세로x깊이): 237x1056x94mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 75분(개당) / [구성] 바닥 / 틈새 / [부가] 색상: 클리어화이트, 옐로우그린 / 무게: 1.25kg / 크기(가로x세로x깊이): 220x963x135mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / [성능] 싸이클론 / 소비전력: 600W / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블루 / 크기(가로x세로x깊이): 270x1220x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 25000Pa / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트, 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 240x1140x210mm</t>
-  </si>
-  <si>
-    <t>dAMGAEjLEa867670</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 25W / 소비전력: 180W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.9kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 그레이 / 무게: 2.32kg / 크기(가로x세로x깊이): 310x700x130mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간: 20분(개당) / [기능] 배터리잔량표시 / [부가] 물통용량: 0.4L / 색상: 옐로우 / 무게: 4.4kg / 셀프크리닝 / 크기(가로x세로x깊이): 320x1220x270mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 13분 / 충전방식: 시거잭 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 소비전력: 400W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2500mAh / 사용시간: 35분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 퍼플 / 무게: 2.9kg / 크기(가로x세로x깊이): 240x1115x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 루트싸이클론 / 흡입력: 220AW / 소비전력: 545W / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 5900Pa / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 15분(개당) / [구성] 솔형 / 틈새 / [부가] 먼지통용량: 0.1L / 색상: 블랙 / 무게: 0.55kg / 에어컴프레셔</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 충전시간: 10시간 / 사용시간: 8분(개당) / [구성] 틈새 / [부가] 색상: 그린, 오렌지 / 무게: 0.65kg / 습건식</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 내장형 / 리튬이온 / 용량: 2600mAh / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 4단계여과 / [기능] 자동물공급 / LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.46L / 물통용량: 0.26L / 색상: 레드 / 무게: 0.93kg / 크기(가로x세로x깊이): 245x990x185mm</t>
+    <t>차량용청소기 / 무선 / 흡입력: 4,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 배터리용량: 2,000mAH / 색상: 네이비, 화이트 / 크기: 70x260mm / 무게: 430g</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 9000Pa / 소비전력: 120W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 45분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 소비전력: 450W / [배터리] 분리형 / 용량: 3000mAh / 사용시간: 1시간5분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.23L / 색상: 화이트 / 무게: 1.2kg / 크기(가로x세로x깊이): 256x1286x214mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 85W / [배터리] 니켈수소 / 용량: 2200mAh / [필터] 3단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 3.8kg / 크기(가로x세로x깊이): 285x1140x190mm</t>
-  </si>
-  <si>
-    <t>업소용청소기 / 고압세척기 / 무선형 / [기능] 용량: 2600mAh / 작동압력: 24bar / [부가] 무게: 2.3kg / 크기(가로x세로x깊이): 424x179x90mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 2,000Pa / 최대출력: 35W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전방식: USB C타입 / 색상: 그레이, 그린, 블루, 블랙 / 충전시간: 4시간 / 무게: 366g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 12000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>업소용청소기 / 건식 / 무선형 / [기능] 이동바퀴 / [부가] 탱크용량: 50L / 무동력 / 크기(가로x세로x깊이): 750x1170x1120mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 7000Pa / 소비전력: 80W / 용량: 2200mAh / 사용시간: 30분(개당) / [필터] 헤파필터 / H11급 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트, 블랙, 그레이 / 무게: 0.87kg / 크기(가로x세로x깊이): 150x400x90mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 물걸레 / 소비전력: 17W / [배터리] 리튬이온 / 용량: 6300mAh / 충전시간: 11시간 / 사용시간: 40분(개당) / [필터] 3단계여과 / [기능] LED라이트 / [부가] 색상: 투톤레드, 화이트 / 무게: 4.4kg / 크기(가로x세로x깊이): 360x1170x230mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / 소비전력: 12.6W / [부가] 물통용량: 0.22L / 색상: 화이트 / 무게: 3.3kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1260x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 48W / [기능] 셀프스탠딩 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 그린 / 무게: 2.6kg / 크기(가로x세로x깊이): 383x135x117mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 85AW / 흡입력: 18000Pa / 소비전력: 300W / [배터리] 내장형 / 용량: 2000mAh / 충전시간: 3시간30분 / 사용시간: 48분(개당) / [필터] 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.4L / 색상: 화이트+레드 / 무게: 1.4kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 48W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 12분(개당) / [기능] 셀프스탠딩 / [부가] 색상: 에어본+내츄럴그레이 / 무게: 1kg / 크기(가로x세로x깊이): 342x265x119mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 18AW / [배터리] 리튬이온 / 충전시간: 4시간 / [기능] 배터리잔량표시 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 레드 / 무게: 1.1kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 25W / [배터리] 충전시간: 10시간 / 사용시간: 8분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 레드 / 건습식 / 크기(가로x세로x깊이): 110x120x390mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 15W / 소비전력: 48W / [배터리] 니켈수소 / 충전시간: 8시간 / 사용시간: 10분(개당) / [구성] 틈새 / [부가] 색상: 오렌지 / 무게: 0.75kg / 크기(가로x세로x깊이): 174x103x317mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / [배터리] 분리형 / 리튬이온 / 충전시간: 5시간 / 사용시간: 45분(개당) / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙+옐로우 / 무게: 2.2kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 50분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 234x1056x163mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 13000Pa / 소비전력: 13.5W / [배터리] 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 25분(개당) / [필터] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.15L / 색상: 화이트 / 무게: 0.512kg / 크기(가로x세로x깊이): 58x344x58mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 2시간(개당) / [구성] 거치대 / [부가] 색상: 그레이 / 무게: 0.8kg / 방수 / 브러쉬: 스펀지, 돔형, 틈새, 평면 / 크기(가로x세로x깊이): 150x1100x700mm</t>
-  </si>
-  <si>
-    <t>로봇청소기 / 흡입+걸레 / [센서] 카메라1개 / dToF센서 / 장애물인식센서 / 추락방지센서 / [성능] 흡입력: 2600Pa / 용량: 3200mAh / 충전시간: 4시간30분 / 사용시간: 1시간50분(개당) / 헤파필터 / 소비전력: 40W / [기능] 스마트폰제어: 간편업데이트, 금지구역, 원격예약 / 바닥감지 / 문턱등반 / 자동충전 / 음성안내 / [부가] 먼지통용량: 0.42L / 물통용량: 0.24L / 색상: 화이트, 블랙 / 무선형 / 크기(가로x세로x깊이): 353x93x353mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 23분(개당) / [필터] 3단계여과 / [구성] 거치대 / [부가] 색상: 초코릿브라운 메탈릭 / 무게: 1.1kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+민트 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 30W / [배터리] 분리형 / 리튬이온 / 사용시간: 20분(개당) / [부가] 먼지통용량: 0.65L / 색상: 블루 / 무게: 1.2kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 타이탄블루 / 무게: 3.01kg / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 75W / [배터리] 리튬이온 / 용량: 500mAh / 사용시간: 30분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 0.65kg / 크기(가로x세로): 70x410mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 4100mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 각도조절 / [부가] 색상: 샴페인골드 / 무게: 3.14kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 411x1105x192mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 마호가니브론즈 / 무게: 3.36kg / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 20000Pa / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 210x1040x104mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 데님블루 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 20000Pa / 소비전력: 230W / [배터리] 분리형 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.32kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 니켈수소 / 충전시간: 8~10시간 / 사용시간: 15분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] 배터리잔량표시 / [구성] 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 퍼플, 오렌지레드 / 무게: 1kg / 크기(가로x세로x깊이): 380x100x120mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 4,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 배터리용량: 2,000mAH / 색상: 네이비, 화이트 / 크기: 70x260mm / 무게: 430g</t>
-  </si>
-  <si>
-    <t>s3stnLMAqV947096</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 (2개) / 용량: 2750mAh / 충전시간: 2시간 30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 거치대 / 프리볼트 / [부가] 색상: 화이트 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 싸이클론 / 흡입력: 60W / [배터리] 충전시간: 8시간 / 사용시간: 9분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙+레드 / 크기(가로x세로x깊이): 200x138x400mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 추가노즐: 솔브러쉬 / 사용시간: 30분 / 소음: 70dB / 크기: 65x84x223.5mm / 무게: 378g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 4~6시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 3kg / 크기(가로x세로x깊이): 350x645x335mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 25AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 17분(개당) / [구성] 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 1.47kg</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새 / 싸이클론 / 사용시간: 15~30분 / 배터리용량: 2,500mAh / 충전시간: 4~5시간 / 크기: 415x90mm / 무게: 550g / 색상: 화이트, 진그레이</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미드나잇블루 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 4500Pa / 소비전력: 80W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 20분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙, 화이트 / 무게: 0.8kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 5400Pa / [배터리] 분리형 / 리튬이온 / 충전시간: 22분 / 사용시간: 40분(개당) / [기능] 배터리잔량표시 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.3kg / 스위블헤드 / 크기(가로x세로x깊이): 151x1004x151mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2600mAh / 충전시간: 4시간40분 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.36L / 물통용량: 0.25L / 무게: 0.93kg / 물분사 / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 14분(개당) / [필터] 3단계여과 / [부가] 먼지통용량: 0.5L / 색상: 워터멜론레드메탈릭 / 무게: 1.1kg / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 12000Pa / 소비전력: 150W / [배터리] 분리형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 40분(개당) / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.2kg / 크기(가로x세로x깊이): 238x1140x214mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 우디그린 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 6000Pa / 소비전력: 75W / [배터리] 용량: 2600mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / 5단계여과 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 0.64kg / 크기(가로x세로x깊이): 65x400x65mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 12V / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 20분</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / [기능] 디스플레이표시창 / LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 블랙 / 무게: 1.5kg</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 6500Pa / 추가노즐: 솔브러쉬, 연장호스 / 사용시간: 30분 / 무게 : 1,040g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 17000Pa / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 에어컴프레셔 / 크기(가로x세로x깊이): 80x1040x190mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 30W / [배터리] 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 1시간40분(개당) / [기능] 프리볼트 / [구성] 연장툴 / [부가] 색상: 화이트</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / [부가] 먼지통용량: 0.42L / 색상: 아이언그레이 / 무게: 2.5kg / 크기(가로x세로x깊이): 299x689x165mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 17000Pa / [필터] 헤파필터 / [구성] 바닥 / [부가] 색상: 블랙 / 무게: 0.5kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 에어포스싸이클론 / [배터리] 리튬이온 / 충전시간: 3시간 / 사용시간: 28분(개당) / [기능] LED라이트 / [구성] 바닥 / 솔형 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 핑크 / 무게: 2.8kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 오렌지 / 무게: 1.3kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 29000Pa / 소비전력: 400W / [배터리] 분리형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 25분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2.11kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 220AW / [배터리] 충전시간: 4시간30분 / 사용시간: 1시간(개당) / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 제트싸이클론 / 디지털인버터모터 / 흡입력: 210W / [배터리] 분리형 / 리튬이온 (2개) / 용량: 2200mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 미스티화이트 / 무게: 2.5kg / 먼지통자동비움 / 일체형청정스테이션 / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 최대출력: 180W / 3중필터 / 추가노즐: 틈새, 솔브러쉬 / 베어툴사양 / 2단 속도 조절 / 플렉시블 튜브 / 크기: 150x182x218mm / 무게: 1,400g</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 15분 / 충전방식: USB C타입 / 배터리: 2,000Amh / 크기: 70mmx320mm / 무게: 576g</t>
-  </si>
-  <si>
-    <t>pY69g5Ee3t141010</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 소비전력: 400W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 2시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H14급 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 물걸레 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 410x805x165mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2050mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] 각도조절 / 소비전력: 70W / [부가] 색상: 블랙, 화이트 / 무게: 3.14kg / 크기(가로x세로x깊이): 411x1105x192mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 내장형 / 리튬이온 / 용량: 2200mAh / 충전시간: 4시간30분 / 사용시간: 50분(개당) / [필터] 헤파필터 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 옐로우 / 무게: 1.4kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2000mAh / 충전시간: 2~3시간 / 사용시간: 50분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1172x217mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] BLDC모터 / 흡입력: 33000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 사용시간: 2시간(개당) / [필터] 헤파필터 / H13급 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 화이트, 블랙 / 무게: 2.97kg / 물분사 / 크기(가로x세로x깊이): 265x1200x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 55분(개당) / [필터] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+민트 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 110AW / 흡입력: 22000Pa / 소비전력: 335W / [배터리] 내장형 / 리튬이온 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 7단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 화이트 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x221mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 최대출력: 60W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 60분 / 충전시간: 4시간 / 충전방식: USB C타입 / 크기: 189x79x131mm / 무게: 475g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 인버터모터 / 소비전력: 450W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 26000Pa / 소비전력: 280W / [배터리] 리튬이온 / 용량: 2200mAh / [필터] 6단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 옐로우 / 무게: 2.7kg / 크기(가로x세로x깊이): 263x1170x230mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 2중터보싸이클론 / 스마트인버터모터 / 흡입력: 210W / 소비전력: 590W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 4시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 판타지실버 / 무게: 2.6kg / 분리형배기필터 / 먼지통자동비움 / 크기(가로x세로x깊이): 250x1120x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 분리형 / 리튬이온 / 사용시간: 12분(개당) / [부가] 색상: 화이트 / 무게: 0.9kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / [성능] 싸이클론 / 소비전력: 500W / [필터] 헤파필터 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.1kg / 크기(가로x세로x깊이): 230x1050x210mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 배터리잔량표시 / 거치대 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 사용시간: 1시간(개당) / [부가] 색상: 화이트 / 무게: 1.46kg / 방수 / 브러쉬: 평면, 돔형, 코너 / 크기(가로x세로x깊이): 130x1110x60mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2500mAh / 충전시간: 4시간 / 사용시간: 1시간(개당) / [기능] 청소모드: UV살균, 진동, 쓸기, 흡입 / 리튬이온 / 속도조절 / 원터치먼지통분리 / 싸이클론 / BLDC모터 / 헤파필터 / 3단계여과 / 소비전력: 350W / [부가] 알레르기인증(BAF) / 무게: 1.2kg / 프리볼트 / 배터리잔량표시 / 크기(가로x세로x깊이): 127x228x319mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 150W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5~6시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 12000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 40분(개당) / [필터] 헤파필터 / H13급 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.8L / 무게: 2.3kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 5300Pa / 사용시간: 40분(개당) / [구성] 바닥 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.65L / 무게: 1.2kg</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 10~17분 / 배터리용량: 1,950mAH / 충전시간: 4~5시간 / 소음: 70dB / 무게: 600g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 15분(개당) / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 무게: 0.75kg / 5단계각도조절 / 크기(가로x세로x깊이): 440x100x100mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 120AW / 흡입력: 23000Pa / 소비전력: 400W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 사용시간: 1시간(개당) / [필터] 헤파필터 / H12급 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 블랙 / 무게: 1.54kg / 크기(가로x세로x깊이): 250x1250x235mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 40분(개당) / [기능] 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 대상감지센서 / 바닥롤러 / 흡입력: 7000Pa / 헤파필터 / 2단계여과 / 소비전력: 90W / [부가] 먼지통용량: 0.5L / 색상: 네이비 / 무게: 1.3kg / 모터과열방지 / 과충전방지 / 과방전방지 / 미세먼지감지센서 / 크기(가로x세로x깊이): 260x175x105mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 300W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 1시간10분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 레드, 블랙 / 무게: 3.89kg / 크기(가로x세로x깊이): 239x1255x105mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [배터리] 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.5L / 무게: 1.5kg / 크기(가로x세로x깊이): 230x1040x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 22000Pa / 소비전력: 350W / 용량: 2500mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 충전방식: 시거잭 / 크기: 298x70mm / 무게: 560g</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 4,800Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 색상: 그레이, 화이트 / 크기: 70x70x270mm / 무게: 500g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 53분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 소비전력: 25W / [배터리] 충전시간: 10시간 / 사용시간: 15분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 골드브라운 / 무게: 1.3kg / 크기(가로x세로x깊이): 110x390x120mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 소비전력: 110W / [배터리] 용량: 2150mAh / 충전시간: 5시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 화이트+블루</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] wpxm싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 미세먼지인증(SLG) / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 화이트+그린 / 무게: 1.5kg / 건 습식 / 크기(가로x세로x깊이): 120x390x120mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 4시간30분 / 사용시간: 45분(개당) / [필터] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 데님블루 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 200AW / 흡입력: 25000Pa / 소비전력: 550W / [배터리] 분리형 / 충전시간: 4시간30분 / 사용시간: 1시간10분(개당) / 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 퍼플</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 19000Pa / 소비전력: 250W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 30분(개당) / [필터] 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 블루 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 6,200Pa / 최대출력: 70W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18분 / 충전시간: 1시간30분~2시간 / 충전방식: USB C타입 / 크기: 73x305mm / 무게: 703g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 흡입력: 10000Pa / 소비전력: 125W / 용량: 2200mAh / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 화이트 / 무게: 1.6kg / 크기(가로x세로x깊이): 210x1155x180mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>hP1NvXgn8W430667</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 12000Pa / 소비전력: 160W / [필터] 헤파필터 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 퍼플 / 무게: 1.89kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 6000Pa / 소비전력: 45W / [배터리] 내장형 / 리튬이온 / 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.9L / 색상: 레드 / 무게: 0.75kg / 크기(가로x세로x깊이): 130x1130x70mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 150AW / 흡입력: 25000Pa / 소비전력: 420W / [배터리] 리튬폴리머 / 용량: 3610mAh / 충전시간: 4시간 / 사용시간: 1시간30분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 레드 / 무게: 1.4kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 35AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 25분(개당) / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.12L / 색상: 로즈골드 / 무게: 1.25kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 소비전력: 350W / [배터리] 충전시간: 4시간 / 사용시간: 20분(개당) / 바닥 / 틈새 / 거치대</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2750mAh / 충전시간: 2시간30분 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 핑크, 그레이 / 무게: 3.7kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 23000Pa / 소비전력: 420W / [배터리] 분리형 / 리튬이온 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 스틱형 / 무선형 / [배터리] 리튬이온 / 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 2시간30분(개당) / [기능] 배터리잔량표시 / 프리볼트 / [부가] 색상: 화이트 / 무게: 1.75kg / 방수 / 브러쉬: 바닥, 틈새, 원형 / 크기(가로x세로x깊이): 72x1030x72mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 핸디형 / 무선형 / [배터리] 용량: 2000mAh / 충전시간: 3시간 / 사용시간: 1시간50분(개당) / [부가] 색상: 블랙, 화이트 / 무게: 0.4kg / 생활방수 / 브러쉬: 모서리, 평면, 스펀지수세미 / 크기(가로x세로x깊이): 110x205x50mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / [배터리] 분리형 / 리튬이온 / 충전시간: 5시간 / 사용시간: 45분(개당) / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.2kg</t>
-  </si>
-  <si>
-    <t>진공청소기 / 무선형 / [성능] 헤파필터 / 먼지통 / 먼지통용량: 1.2L / [구성] 브러쉬: 플로어 / 보조브러쉬: 틈새 / [부가] 무게: 4.1kg / 충전시간: 3~5시간 / 사용시간: 50분 / 프리볼트 / 크기(가로x세로x깊이): 376x292x259mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 물걸레 / 소비전력: 72W / [배터리] 니켈수소 / 충전시간: 5시간 / 사용시간: 18분(개당) / [필터] 헤파필터 / H12급 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 옐로우+블랙 / 무게: 2.9kg / 크기(가로x세로x깊이): 650x180x320mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 틸실버 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2000mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 소비전력: 30W / [부가] 색상: 블랙 / 무게: 1.8kg / 크기(가로x세로x깊이): 335x1100x180mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 26000Pa / 소비전력: 300W / [배터리] 분리형 / 리튬이온 / 용량: 2150mAh / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H14급 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 그레이 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1260x220mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 3중필터 / 스테인리스 필터 / 배터리용량: 5,000mAh / 색상: 화이트, 실버, 네이비</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 소프트샌드 / 무게: 3.6kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 마호가니브론즈 / 무게: 3.4kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 200AW / 흡입력: 29000Pa / 소비전력: 535W / [배터리] 리튬이온 / 용량: 2500mAh / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 6단계여과 / [기능] 먼지감지센서 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 실버 / 무게: 1.6kg / 크기(가로x세로x깊이): 278x1248x225mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 용량: 2500mAh / 충전시간: 3시간 / 사용시간: 25분(개당) / [기능] 물분사 / 셀프스탠딩 / 배터리잔량표시 / BLDC모터 / 헤파필터 / 소비전력: 140W / [부가] 색상: 화이트 / 오토클리닝 / 크기(가로x세로x깊이): 308x1100x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 흡입력: 17000Pa / 소비전력: 250W / [배터리] 리튬이온 / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1024x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 흡입력: 86W / [배터리] 니켈카드뮴 / 충전시간: 8시간 / 사용시간: 15분(개당) / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 실버 / 크기(가로x세로x깊이): 560x170x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 소비전력: 250W / [배터리] 리튬이온 / 충전시간: 4~6시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] 배터리잔량표시 / [구성] 바닥 / 카펫 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.11kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] BLDC모터 / 흡입력: 25000Pa / 소비전력: 350W / [배터리] 분리형 / 리튬이온 / 용량: 2500mAh / 충전시간: 4~5시간 / 사용시간: 25분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 레드 / 무게: 2.08kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / 소비전력: 40W / [배터리] 용량: 300mAh / 충전시간: 6시간30분 / 사용시간: 15분(개당) / [기능] 프리볼트 / [구성] 틈새 / [부가] 먼지통용량: 0.4L / 물통용량: 0.1L / 색상: 화이트 / 무게: 1kg / 건습식 / 크기(가로x세로x깊이): 137x405x144mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 30분(개당) / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [부가] 색상: 화이트 / 무게: 2.31kg / 크기(가로x세로x깊이): 140x720x290 mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 27000Pa / 소비전력: 250W / [배터리] 내장형 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 색상: 핑크, 바이올렛 / 무게: 1.36kg / 크기(가로x세로x깊이): 260x1100x160mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 (2개) / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 티탄+그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 6시간 / 사용시간: 1시간(개당) / [필터] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 더스팅 / 3in1 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.7L / 알레르기인증(BAF) / 색상: 사틴화이트 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2150mAh / 충전시간: 3시간 / 사용시간: 40분(개당) / [기능] 물분사 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블루 / 무게: 3.9 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1150x190mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 18000Pa / 소비전력: 200W / [배터리] 분리형 / 리튬이온 / 충전시간: 5시간 / 사용시간: 50분(개당) / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2.5kg / 크기(가로x세로x깊이): 230x1150x210mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 용량: 2200mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [기능] 물분사 / 각도조절 / 셀프스탠딩 / 소비전력: 44W / [부가] 색상: 화이트 / 무게: 1.7kg / 크기(가로x세로): 160x1140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 17000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2100mAh / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.35L / 무게: 2.8kg / 크기(가로x세로x깊이): 120x1100x130mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 200W / 소비전력: 550W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [필터] 헤파필터 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 실버+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
   </si>
   <si>
     <t>침구청소기 / 핸디형 / 무선형 / 용량: 2000mAh / 충전시간: 3.5시간 / 사용시간: 8~28분(개당) / [기능] 청소모드: 온풍, UV살균, 진동, 흡입 / 진동수: 12800회(분당) / 흡입력: 16000Pa / 헤파필터 / H13급 / 4단계여과 / 소비전력: 330W / [부가] 색상: 화이트 / 크기(가로x세로): 248x225mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / [성능] 싸이클론 / [배터리] 리튬이온 / 충전시간: 5시간 / 사용시간: 30분(개당) / [필터] 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [부가] 색상: 블랙 / 무게: 2.31kg / 크기(가로x세로x깊이): 260x1092x220 mm</t>
-  </si>
-  <si>
-    <t>GawMOLplhU628335</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / [배터리] 충전시간: 12시간 / 사용시간: 18분(개당) / [부가] 색상: 에어본화이트 / 무게: 2.9kg / 크기(가로x세로x깊이): 261x1100x193mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간: 5시간(개당) / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1250x135mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 필터 / 무선 / 흡입력: 2,700Pa / 최대출력: 45W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전방식: USB타입 / 충전시간: 3.5시간 / 크기: 83x83x293mm / 무게: 660g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / DC모터 / 흡입력: 6000Pa / 소비전력: 45W / [배터리] 리튬이온 / 용량: 4000mAh / 충전시간: 4시간 / 사용시간: 20분(개당) / [필터] 헤파필터 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.9L / 색상: 화이트 / 무게: 0.9kg / 크기(가로x세로x깊이): 130x1130x70mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 10W / [배터리] 용량: 2600mAh / 충전시간: 3시간 / 사용시간: 1시간(개당) / [부가] 색상: 화이트+핑크 / 무게: 0.34kg / 방수 / 브러쉬: 평면, 일반, 모서리, 극세사, 수세미, 스폰지, 연장툴 / 크기(가로x세로x깊이): 70x1130x95mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 35분 / 크기: 1,000x80x150mm / 무게: 3,200g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 20AW / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 11분(개당) / [필터] 2단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.56L / 색상: 블랙 / 무게: 1.42kg / 크기(가로x세로): 190x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 소비전력: 500W / [배터리] 용량: 2500mAh / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 업탑어댑터 / 거치대 / [부가] 색상: 레드 / 무게: 2.3kg / 크기(가로x세로x깊이): 256x1243x133mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 140AW / 흡입력: 23000Pa / 소비전력: 420W / [배터리] 분리형 / 리튬이온 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / [성능] 흡입력: 90W / [배터리] 충전시간: 8시간 / 사용시간: 20분(개당) / [구성] 솔형 / 틈새 / 거치대 / [부가] 무게: 1.5kg / 크기(가로x세로x깊이): 430x135x105mm</t>
   </si>
   <si>
     <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 60W / 헤파필터 / LED라이트 / 사용시간: 25분 / 크기: 275x60mm / 무게: 500g / 색상: 블랙, 화이트</t>
   </si>
   <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 색상: 아이보리 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 패드: 일반, 초극세사 / 크기(가로x세로x깊이): 410x11800x205mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 120W / LED라이트 / 사용시간: 30분 / 색상: 블랙, 화이트 / 크기(높이x길이): 145x165mm / 무게: 400g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / [성능] 싸이클론 / 소비전력: 600W / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 260x1060x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 소비전력: 150W / [배터리] 용량: 2200mAh / 충전시간: 4시간30분 / 사용시간: 22분(개당) / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.6L / 색상: 화이트 / 크기(가로x세로x깊이): 235x1150x175mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 유선형 / 배터리: 리튬이온 / 용량: 2000mAh / 충전시간: 2시간 / 사용시간: 45분(개당) / [기능] 물분사 / LED라이트 / 각도조절 / 배터리잔량표시 / BLDC모터 / 소비전력: 30W / [부가] 색상: 블랙 / 무게: 2.5kg / 모터과열방지 / 과충전방지 / 패드: 극세사 / 크기(가로x세로x깊이): 400x1110x280mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 35분 / 배터리, 충전기 미포함 / 크기: 1,000x80x150mm / 무게: 3,200g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 싸이클론 / 인버터모터 / 흡입력: 150W / 소비전력: 410W / [배터리] 분리형 / 리튬이온 / 충전시간: 3시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 알레르기인증(BAF) / 미세먼지인증(SLG) / 색상: 화이트+민트 / 무게: 2.54kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / 흡입력: 25000Pa / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4시간30분 / 사용시간: 40분(개당) / [필터] 헤파필터 / 4단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 레드 / 무게: 2.48kg / 크기(가로x세로x깊이): 230x1150x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 35분(개당) / [필터] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 데님블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 299x689x165mm</t>
-  </si>
-  <si>
-    <t>로봇청소기 / 흡입+걸레 / [센서] 장애물인식센서 / 추락방지센서 / [성능] BLDC모터 / 배터리: 리튬이온 / 용량: 2600mAh / 충전시간: 5시간 / 사용시간: 2시간(개당) / 헤파필터 / 소비전력: 12W / [기능] 문턱등반 / 자동충전 / 리모콘 / [부가] 먼지통용량: 0.3L / 색상: 화이트, 블랙, 블루 / 무게: 2.5kg / 무선형 / 패드: 극세사 / 크기(가로x깊이): 310x72x310mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,200Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 20분 / 크기: 235x65x65mm / 무게: 595g / 충전시간: 4시간 / 먼지통용량: 120ml</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] BLDC모터 / 흡입력: 20000Pa / 소비전력: 200W / [배터리] 리튬이온 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 1시간(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 그레이 / 무게: 2.32kg / 크기(가로x세로x깊이): 310x700x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [배터리] 리튬이온 / 충전시간: 4시간 / 사용시간: 48분(개당) / [필터] 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 알레르기인증(BAF) / 색상: 소프트샌드 / 무게: 3.6kg</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 핸디+스틱형 / 무선형 / 소비전력: 84W / [배터리] 리튬이온 / 용량: 2150mAh / 충전시간: 3시간30분 / 사용시간: 1시간30분(개당) / [기능] 배터리잔량표시 / 프리볼트 / [부가] 색상: 블랙, 화이트 / 무게: 0.76kg / 생활방수 / 각도조절 / 압력감지센서 / 브러쉬: 물걸레, 원형, 틈새</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 용량: 2200mAh / 충전시간: 3~5시간 / 사용시간: 80분(개당) / [기능] 물분사 / LED라이트 / 셀프스탠딩 / 트윈싸이클론 / 소비전력: 35W / [부가] 색상: 네이비, 바이올렛 / 무게: 2.4kg / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로): 290x1180x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / 소비전력: 525W / [배터리] 리튬이온 / 충전시간: 3시간30분 / 사용시간: 1시간(개당) / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2150mAh / 충전시간: 3시간 / 사용시간: 30분(개당) / [기능] LED라이트 / [부가] 색상: 화이트 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 420x1250x190mm</t>
-  </si>
-  <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / [성능] 싸이클론 / DC모터 / 흡입력: 12000Pa / 소비전력: 150W / [배터리] 리튬이온 / 용량: 2200mAh / 충전시간: 4~5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 브라운 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간: 8~12분(개당) / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙 / 크기(가로x세로x깊이): 200x420x138mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 인버터모터 / 소비전력: 190W / [배터리] 사용시간: 20분(개당) / [기능] LED라이트 / [구성] 바닥 / 굳은먼지 / 틈새 / 매트리스 / [부가] 색상: 빈티지와인 / 크기(가로x세로x깊이): 270x1105x190mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 코드길이: 4.5m / 색상: 블랙, 화이트 / 크기: 54x215mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 12V / 흡입력: 5,200Pa / 최대출력: 120W / 3중필터 / 추가노즐: 틈새, 연장호스 / 사용시간: 25분 / 충전시간: 3~4시간 / 소음: 72dB / 색상: 블랙, 실버 / 크기: 250x190x120mm / 무게: 800g</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 용량: 2850mAh / 충전시간: 4시간 / 사용시간: 30분(개당) / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / [부가] 색상: 화이트 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 흡입전용 / [성능] 흡입력: 12000Pa / 소비전력: 90W / [배터리] 리튬이온 / 용량: 2500mAh / 사용시간: 35분(개당) / [필터] 헤파필터 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 네이비 / 무게: 0.8kg / 크기(가로x세로x깊이): 80x400x80mm</t>
-  </si>
-  <si>
-    <t>욕실청소기 / 핸디형 / 무선형 / 색상: 화이트 / 건전지식 / 브러쉬: PP, 폴리셔, 스펀지 / 크기(가로x세로x깊이): 70x195x112mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입+걸레겸용 / [성능] 흡입력: 160AW / [배터리] 분리형 / 용량: 2000mAh / 충전시간: 5시간 / 사용시간: 35분(개당) / [필터] 헤파필터 / H13급 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 무게: 2.3kg</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 4,000Pa / 최대출력: 65W / 3중필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 크기: 65x232mm / 색상: 블랙, 실버</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15분 / 충전시간: 2시간30분 / 크기: 300x70mm / 무게: 550g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입전용 / [성능] 싸이클론 / BLDC모터 / 흡입력: 19000Pa / 소비전력: 230W / [배터리] 분리형 / 리튬이온 / 용량: 1950mAh / 충전시간: 4시간 / 사용시간: 40분(개당) / 3단계여과 / LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블루 / 크기(가로x세로x깊이): 310x1200x250mm</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2856,7 @@
         <v>413</v>
       </c>
       <c r="C2">
-        <v>51800</v>
+        <v>1219270</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>414</v>
       </c>
       <c r="C3">
-        <v>686077</v>
+        <v>50630</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>415</v>
       </c>
       <c r="C4">
-        <v>1189580</v>
+        <v>488350</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>416</v>
       </c>
       <c r="C5">
-        <v>36530</v>
+        <v>158193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>417</v>
       </c>
       <c r="C6">
-        <v>489180</v>
+        <v>35570</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>418</v>
       </c>
       <c r="C7">
-        <v>719380</v>
+        <v>798940</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>419</v>
       </c>
       <c r="C9">
-        <v>626650</v>
+        <v>153660</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>420</v>
       </c>
       <c r="C10">
-        <v>153660</v>
+        <v>586510</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>421</v>
       </c>
       <c r="C11">
-        <v>33000</v>
+        <v>136590</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>422</v>
       </c>
       <c r="C12">
-        <v>145570</v>
+        <v>614200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>423</v>
       </c>
       <c r="C13">
-        <v>798340</v>
+        <v>797680</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2987,7 +2987,7 @@
         <v>424</v>
       </c>
       <c r="C15">
-        <v>138320</v>
+        <v>145420</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2998,7 +2998,7 @@
         <v>425</v>
       </c>
       <c r="C16">
-        <v>155000</v>
+        <v>678780</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>426</v>
       </c>
       <c r="C17">
-        <v>631780</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>427</v>
       </c>
       <c r="C18">
-        <v>585470</v>
+        <v>883810</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>428</v>
       </c>
       <c r="C19">
-        <v>921520</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>429</v>
       </c>
       <c r="C21">
-        <v>861350</v>
+        <v>51520</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>430</v>
       </c>
       <c r="C22">
-        <v>99000</v>
+        <v>108760</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>431</v>
       </c>
       <c r="C23">
-        <v>682100</v>
+        <v>634540</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>432</v>
       </c>
       <c r="C24">
-        <v>1036130</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>433</v>
       </c>
       <c r="C25">
-        <v>43500</v>
+        <v>1050960</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>434</v>
       </c>
       <c r="C26">
-        <v>59340</v>
+        <v>1051220</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>435</v>
       </c>
       <c r="C27">
-        <v>130310</v>
+        <v>59340</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>436</v>
       </c>
       <c r="C28">
-        <v>653250</v>
+        <v>1082100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>437</v>
       </c>
       <c r="C29">
-        <v>108760</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>438</v>
       </c>
       <c r="C30">
-        <v>50910</v>
+        <v>496220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>439</v>
       </c>
       <c r="C31">
-        <v>382300</v>
+        <v>712450</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3168,7 +3168,7 @@
         <v>440</v>
       </c>
       <c r="C32">
-        <v>506300</v>
+        <v>130310</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>441</v>
       </c>
       <c r="C33">
-        <v>24480</v>
+        <v>388340</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>442</v>
       </c>
       <c r="C34">
-        <v>568080</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>443</v>
       </c>
       <c r="C35">
-        <v>1446780</v>
+        <v>753180</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>444</v>
       </c>
       <c r="C36">
-        <v>1062350</v>
+        <v>947940</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>445</v>
       </c>
       <c r="C37">
-        <v>49500</v>
+        <v>124890</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>446</v>
       </c>
       <c r="C38">
-        <v>614200</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>447</v>
       </c>
       <c r="C39">
-        <v>386100</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>448</v>
       </c>
       <c r="C40">
-        <v>122090</v>
+        <v>621670</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>449</v>
       </c>
       <c r="C41">
-        <v>125850</v>
+        <v>1229600</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3278,7 +3278,7 @@
         <v>450</v>
       </c>
       <c r="C42">
-        <v>1288610</v>
+        <v>639790</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>451</v>
       </c>
       <c r="C43">
-        <v>522670</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>452</v>
       </c>
       <c r="C44">
-        <v>213990</v>
+        <v>566810</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>453</v>
       </c>
       <c r="C45">
-        <v>571850</v>
+        <v>116290</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>454</v>
       </c>
       <c r="C46">
-        <v>310380</v>
+        <v>822320</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>455</v>
       </c>
       <c r="C47">
-        <v>237450</v>
+        <v>1060150</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>456</v>
       </c>
       <c r="C48">
-        <v>646090</v>
+        <v>381200</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>457</v>
       </c>
       <c r="C49">
-        <v>766540</v>
+        <v>474690</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>458</v>
       </c>
       <c r="C50">
-        <v>32700</v>
+        <v>75510</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>459</v>
       </c>
       <c r="C51">
-        <v>117310</v>
+        <v>566592</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>460</v>
       </c>
       <c r="C53">
-        <v>75510</v>
+        <v>36740</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>461</v>
       </c>
       <c r="C54">
-        <v>763300</v>
+        <v>38190</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3415,7 +3415,7 @@
         <v>462</v>
       </c>
       <c r="C55">
-        <v>15500</v>
+        <v>916300</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3426,7 +3426,7 @@
         <v>463</v>
       </c>
       <c r="C56">
-        <v>949030</v>
+        <v>28680</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3437,7 +3437,7 @@
         <v>464</v>
       </c>
       <c r="C57">
-        <v>56260</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>465</v>
       </c>
       <c r="C59">
-        <v>832160</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>466</v>
       </c>
       <c r="C60">
-        <v>697450</v>
+        <v>1445890</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>467</v>
       </c>
       <c r="C61">
-        <v>483790</v>
+        <v>952950</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3486,7 +3486,7 @@
         <v>468</v>
       </c>
       <c r="C62">
-        <v>105890</v>
+        <v>479000</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3497,7 +3497,7 @@
         <v>469</v>
       </c>
       <c r="C63">
-        <v>903850</v>
+        <v>57900</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>470</v>
       </c>
       <c r="C65">
-        <v>298550</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>471</v>
       </c>
       <c r="C66">
-        <v>82900</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>472</v>
       </c>
       <c r="C67">
-        <v>57900</v>
+        <v>299900</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>473</v>
       </c>
       <c r="C68">
-        <v>89000</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>474</v>
       </c>
       <c r="C69">
-        <v>146830</v>
+        <v>831560</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>475</v>
       </c>
       <c r="C70">
-        <v>29160</v>
+        <v>56260</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>476</v>
       </c>
       <c r="C71">
-        <v>351570</v>
+        <v>226580</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>477</v>
       </c>
       <c r="C72">
-        <v>655410</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>478</v>
       </c>
       <c r="C73">
-        <v>169000</v>
+        <v>72930</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>479</v>
       </c>
       <c r="C74">
-        <v>125800</v>
+        <v>631690</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>480</v>
       </c>
       <c r="C75">
-        <v>70720</v>
+        <v>105890</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>481</v>
       </c>
       <c r="C76">
-        <v>229150</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>482</v>
       </c>
       <c r="C77">
-        <v>309950</v>
+        <v>128120</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>483</v>
       </c>
       <c r="C78">
-        <v>242730</v>
+        <v>298200</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>484</v>
       </c>
       <c r="C79">
-        <v>135920</v>
+        <v>891700</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>485</v>
       </c>
       <c r="C80">
-        <v>248000</v>
+        <v>1186750</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>486</v>
       </c>
       <c r="C81">
-        <v>48900</v>
+        <v>1274000</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>487</v>
       </c>
       <c r="C82">
-        <v>333510</v>
+        <v>604380</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>488</v>
       </c>
       <c r="C83">
-        <v>59900</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>489</v>
       </c>
       <c r="C84">
-        <v>1186750</v>
+        <v>316200</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>490</v>
       </c>
       <c r="C85">
-        <v>88400</v>
+        <v>78680</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>491</v>
       </c>
       <c r="C86">
-        <v>169000</v>
+        <v>296620</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>492</v>
       </c>
       <c r="C87">
-        <v>36800</v>
+        <v>694950</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>493</v>
       </c>
       <c r="C88">
-        <v>232400</v>
+        <v>70720</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>494</v>
       </c>
       <c r="C89">
-        <v>232990</v>
+        <v>75650</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>495</v>
       </c>
       <c r="C90">
-        <v>506910</v>
+        <v>232990</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>496</v>
       </c>
       <c r="C91">
-        <v>821700</v>
+        <v>661680</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>497</v>
       </c>
       <c r="C92">
-        <v>799000</v>
+        <v>600780</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>498</v>
       </c>
       <c r="C93">
-        <v>1274000</v>
+        <v>237450</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>499</v>
       </c>
       <c r="C94">
-        <v>197900</v>
+        <v>29310</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>500</v>
       </c>
       <c r="C95">
-        <v>287642</v>
+        <v>799000</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>501</v>
       </c>
       <c r="C97">
-        <v>859980</v>
+        <v>299000</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>502</v>
       </c>
       <c r="C98">
-        <v>349320</v>
+        <v>17850</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>503</v>
       </c>
       <c r="C99">
-        <v>914320</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>504</v>
       </c>
       <c r="C100">
-        <v>299000</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3903,7 +3903,7 @@
         <v>505</v>
       </c>
       <c r="C101">
-        <v>489020</v>
+        <v>869930</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>506</v>
       </c>
       <c r="C103">
-        <v>608650</v>
+        <v>59900</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>507</v>
       </c>
       <c r="C104">
-        <v>278950</v>
+        <v>966530</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>508</v>
       </c>
       <c r="C105">
-        <v>480000</v>
+        <v>407000</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>509</v>
       </c>
       <c r="C106">
-        <v>576250</v>
+        <v>348770</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>510</v>
       </c>
       <c r="C107">
-        <v>29350</v>
+        <v>217270</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3979,7 +3979,7 @@
         <v>511</v>
       </c>
       <c r="C109">
-        <v>430000</v>
+        <v>489020</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3990,7 +3990,7 @@
         <v>512</v>
       </c>
       <c r="C110">
-        <v>108000</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4001,7 +4001,7 @@
         <v>513</v>
       </c>
       <c r="C111">
-        <v>136270</v>
+        <v>611720</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>514</v>
       </c>
       <c r="C112">
-        <v>63660</v>
+        <v>278950</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>515</v>
       </c>
       <c r="C113">
-        <v>545550</v>
+        <v>557204</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4034,7 +4034,7 @@
         <v>516</v>
       </c>
       <c r="C114">
-        <v>260600</v>
+        <v>538590</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4045,7 +4045,7 @@
         <v>517</v>
       </c>
       <c r="C115">
-        <v>649500</v>
+        <v>884070</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4056,7 +4056,7 @@
         <v>518</v>
       </c>
       <c r="C116">
-        <v>810880</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4067,7 +4067,7 @@
         <v>519</v>
       </c>
       <c r="C117">
-        <v>258000</v>
+        <v>135260</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4078,7 +4078,7 @@
         <v>520</v>
       </c>
       <c r="C118">
-        <v>730580</v>
+        <v>808650</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4089,7 +4089,7 @@
         <v>521</v>
       </c>
       <c r="C119">
-        <v>967310</v>
+        <v>137630</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4100,7 +4100,7 @@
         <v>522</v>
       </c>
       <c r="C120">
-        <v>359410</v>
+        <v>519000</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4111,7 +4111,7 @@
         <v>523</v>
       </c>
       <c r="C121">
-        <v>185250</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4122,7 +4122,7 @@
         <v>524</v>
       </c>
       <c r="C122">
-        <v>298950</v>
+        <v>759000</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>525</v>
       </c>
       <c r="C123">
-        <v>598000</v>
+        <v>298950</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4144,7 +4144,7 @@
         <v>526</v>
       </c>
       <c r="C124">
-        <v>1074320</v>
+        <v>688790</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4155,7 +4155,7 @@
         <v>527</v>
       </c>
       <c r="C125">
-        <v>299900</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4166,7 +4166,7 @@
         <v>528</v>
       </c>
       <c r="C126">
-        <v>884950</v>
+        <v>185250</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4177,7 +4177,7 @@
         <v>529</v>
       </c>
       <c r="C127">
-        <v>129100</v>
+        <v>970000</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4188,7 +4188,7 @@
         <v>530</v>
       </c>
       <c r="C128">
-        <v>749000</v>
+        <v>649500</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4199,7 +4199,7 @@
         <v>531</v>
       </c>
       <c r="C129">
-        <v>879070</v>
+        <v>355420</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4210,7 +4210,7 @@
         <v>532</v>
       </c>
       <c r="C130">
-        <v>1300000</v>
+        <v>681010</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4221,7 +4221,7 @@
         <v>533</v>
       </c>
       <c r="C131">
-        <v>38190</v>
+        <v>889950</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4232,7 +4232,7 @@
         <v>534</v>
       </c>
       <c r="C132">
-        <v>330260</v>
+        <v>598000</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4243,7 +4243,7 @@
         <v>535</v>
       </c>
       <c r="C133">
-        <v>970000</v>
+        <v>260600</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4254,7 +4254,7 @@
         <v>536</v>
       </c>
       <c r="C134">
-        <v>559900</v>
+        <v>470600</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4265,7 +4265,7 @@
         <v>537</v>
       </c>
       <c r="C135">
-        <v>700000</v>
+        <v>879900</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4276,7 +4276,7 @@
         <v>538</v>
       </c>
       <c r="C136">
-        <v>1076990</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4287,7 +4287,7 @@
         <v>539</v>
       </c>
       <c r="C137">
-        <v>109500</v>
+        <v>1550000</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4298,7 +4298,7 @@
         <v>540</v>
       </c>
       <c r="C138">
-        <v>604036</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4309,7 +4309,7 @@
         <v>541</v>
       </c>
       <c r="C139">
-        <v>470600</v>
+        <v>432529</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>542</v>
       </c>
       <c r="C141">
-        <v>748000</v>
+        <v>1128000</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>543</v>
       </c>
       <c r="C142">
-        <v>481000</v>
+        <v>1221120</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>544</v>
       </c>
       <c r="C143">
-        <v>780350</v>
+        <v>369220</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>545</v>
       </c>
       <c r="C144">
-        <v>696990</v>
+        <v>332090</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>546</v>
       </c>
       <c r="C145">
-        <v>880620</v>
+        <v>749990</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4385,7 +4385,7 @@
         <v>547</v>
       </c>
       <c r="C147">
-        <v>369220</v>
+        <v>799000</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>548</v>
       </c>
       <c r="C148">
-        <v>1128000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4407,7 +4407,7 @@
         <v>549</v>
       </c>
       <c r="C149">
-        <v>698330</v>
+        <v>702100</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4418,7 +4418,7 @@
         <v>550</v>
       </c>
       <c r="C150">
-        <v>216380</v>
+        <v>483600</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4429,7 +4429,7 @@
         <v>551</v>
       </c>
       <c r="C151">
-        <v>955390</v>
+        <v>696990</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>552</v>
       </c>
       <c r="C153">
-        <v>836070</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>554</v>
       </c>
       <c r="C155">
-        <v>1221730</v>
+        <v>216380</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>555</v>
       </c>
       <c r="C156">
-        <v>1440150</v>
+        <v>869140</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>556</v>
       </c>
       <c r="C157">
-        <v>689460</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>557</v>
       </c>
       <c r="C158">
-        <v>869140</v>
+        <v>960550</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>558</v>
       </c>
       <c r="C159">
-        <v>670000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>559</v>
       </c>
       <c r="C160">
-        <v>749990</v>
+        <v>1440150</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>560</v>
       </c>
       <c r="C161">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>561</v>
       </c>
       <c r="C162">
-        <v>1550000</v>
+        <v>242730</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>562</v>
       </c>
       <c r="C163">
-        <v>1200000</v>
+        <v>277480</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>563</v>
       </c>
       <c r="C164">
-        <v>814970</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>564</v>
       </c>
       <c r="C165">
-        <v>57540</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>565</v>
       </c>
       <c r="C166">
-        <v>88480</v>
+        <v>180890</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>566</v>
       </c>
       <c r="C167">
-        <v>645750</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>567</v>
       </c>
       <c r="C168">
-        <v>1347060</v>
+        <v>64680</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>568</v>
       </c>
       <c r="C169">
-        <v>39580</v>
+        <v>36190</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>569</v>
       </c>
       <c r="C170">
-        <v>39900</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>570</v>
       </c>
       <c r="C171">
-        <v>97520</v>
+        <v>82690</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>571</v>
       </c>
       <c r="C172">
-        <v>209000</v>
+        <v>790000</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>572</v>
       </c>
       <c r="C173">
-        <v>61740</v>
+        <v>122620</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>573</v>
       </c>
       <c r="C174">
-        <v>75650</v>
+        <v>183750</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>574</v>
       </c>
       <c r="C175">
-        <v>179270</v>
+        <v>530955</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>575</v>
       </c>
       <c r="C176">
-        <v>58900</v>
+        <v>90160</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>576</v>
       </c>
       <c r="C177">
-        <v>267840</v>
+        <v>54900</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>577</v>
       </c>
       <c r="C178">
-        <v>238000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>578</v>
       </c>
       <c r="C179">
-        <v>17850</v>
+        <v>654260</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>579</v>
       </c>
       <c r="C180">
-        <v>654660</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>580</v>
       </c>
       <c r="C181">
-        <v>193210</v>
+        <v>352461</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>581</v>
       </c>
       <c r="C182">
-        <v>515000</v>
+        <v>268190</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>582</v>
       </c>
       <c r="C183">
-        <v>864402</v>
+        <v>87530</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4791,7 +4791,7 @@
         <v>583</v>
       </c>
       <c r="C185">
-        <v>334970</v>
+        <v>63890</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4802,7 +4802,7 @@
         <v>584</v>
       </c>
       <c r="C186">
-        <v>12500</v>
+        <v>266490</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4813,7 +4813,7 @@
         <v>585</v>
       </c>
       <c r="C187">
-        <v>99000</v>
+        <v>1016810</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4824,7 +4824,7 @@
         <v>586</v>
       </c>
       <c r="C188">
-        <v>199000</v>
+        <v>514950</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4835,7 +4835,7 @@
         <v>587</v>
       </c>
       <c r="C189">
-        <v>41930</v>
+        <v>129620</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4851,7 +4851,7 @@
         <v>588</v>
       </c>
       <c r="C191">
-        <v>54900</v>
+        <v>227050</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4862,7 +4862,7 @@
         <v>589</v>
       </c>
       <c r="C192">
-        <v>178000</v>
+        <v>335350</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4873,7 +4873,7 @@
         <v>590</v>
       </c>
       <c r="C193">
-        <v>469120</v>
+        <v>56860</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4884,7 +4884,7 @@
         <v>591</v>
       </c>
       <c r="C194">
-        <v>76940</v>
+        <v>615120</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4895,7 +4895,7 @@
         <v>592</v>
       </c>
       <c r="C195">
-        <v>39000</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4911,7 +4911,7 @@
         <v>593</v>
       </c>
       <c r="C197">
-        <v>184410</v>
+        <v>572930</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4922,7 +4922,7 @@
         <v>594</v>
       </c>
       <c r="C198">
-        <v>20460</v>
+        <v>177990</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4933,7 +4933,7 @@
         <v>595</v>
       </c>
       <c r="C199">
-        <v>146832</v>
+        <v>159850</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>596</v>
       </c>
       <c r="C200">
-        <v>141500</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4955,7 +4955,7 @@
         <v>597</v>
       </c>
       <c r="C201">
-        <v>27090</v>
+        <v>468270</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4966,7 +4966,7 @@
         <v>598</v>
       </c>
       <c r="C202">
-        <v>138360</v>
+        <v>60940</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4977,7 +4977,7 @@
         <v>599</v>
       </c>
       <c r="C203">
-        <v>56860</v>
+        <v>19850</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4988,7 +4988,7 @@
         <v>600</v>
       </c>
       <c r="C204">
-        <v>36060</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4999,7 +4999,7 @@
         <v>601</v>
       </c>
       <c r="C205">
-        <v>677970</v>
+        <v>406100</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5010,7 +5010,7 @@
         <v>602</v>
       </c>
       <c r="C206">
-        <v>278020</v>
+        <v>35250</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5021,7 +5021,7 @@
         <v>603</v>
       </c>
       <c r="C207">
-        <v>408670</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5032,7 +5032,7 @@
         <v>604</v>
       </c>
       <c r="C208">
-        <v>232900</v>
+        <v>108240</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>605</v>
       </c>
       <c r="C209">
-        <v>275540</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>107490</v>
+        <v>175420</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5065,7 +5065,7 @@
         <v>607</v>
       </c>
       <c r="C211">
-        <v>185290</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5076,7 +5076,7 @@
         <v>608</v>
       </c>
       <c r="C212">
-        <v>121350</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5087,7 +5087,7 @@
         <v>609</v>
       </c>
       <c r="C213">
-        <v>512090</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5098,7 +5098,7 @@
         <v>610</v>
       </c>
       <c r="C214">
-        <v>328950</v>
+        <v>299000</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5109,7 +5109,7 @@
         <v>611</v>
       </c>
       <c r="C215">
-        <v>64570</v>
+        <v>356150</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5120,7 +5120,7 @@
         <v>612</v>
       </c>
       <c r="C216">
-        <v>91870</v>
+        <v>73470</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5131,7 +5131,7 @@
         <v>613</v>
       </c>
       <c r="C217">
-        <v>251460</v>
+        <v>91030</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5142,7 +5142,7 @@
         <v>614</v>
       </c>
       <c r="C218">
-        <v>483070</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>615</v>
       </c>
       <c r="C219">
-        <v>33930</v>
+        <v>651610</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5164,7 +5164,7 @@
         <v>616</v>
       </c>
       <c r="C220">
-        <v>90000</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5175,7 +5175,7 @@
         <v>617</v>
       </c>
       <c r="C221">
-        <v>323930</v>
+        <v>398970</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5186,7 +5186,7 @@
         <v>618</v>
       </c>
       <c r="C222">
-        <v>29630</v>
+        <v>109950</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5197,7 +5197,7 @@
         <v>619</v>
       </c>
       <c r="C223">
-        <v>134100</v>
+        <v>86990</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5208,7 +5208,7 @@
         <v>620</v>
       </c>
       <c r="C224">
-        <v>867670</v>
+        <v>114740</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5219,7 +5219,7 @@
         <v>621</v>
       </c>
       <c r="C225">
-        <v>108000</v>
+        <v>1162500</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5230,7 +5230,7 @@
         <v>622</v>
       </c>
       <c r="C226">
-        <v>652420</v>
+        <v>801005</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5241,7 +5241,7 @@
         <v>623</v>
       </c>
       <c r="C227">
-        <v>790000</v>
+        <v>73420</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5257,7 +5257,7 @@
         <v>624</v>
       </c>
       <c r="C229">
-        <v>454770</v>
+        <v>48550</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5268,7 +5268,7 @@
         <v>625</v>
       </c>
       <c r="C230">
-        <v>27120</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5279,7 +5279,7 @@
         <v>626</v>
       </c>
       <c r="C231">
-        <v>439070</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5290,7 +5290,7 @@
         <v>627</v>
       </c>
       <c r="C232">
-        <v>913290</v>
+        <v>56370</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5301,7 +5301,7 @@
         <v>628</v>
       </c>
       <c r="C233">
-        <v>39800</v>
+        <v>146790</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>629</v>
       </c>
       <c r="C235">
-        <v>39550</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>630</v>
       </c>
       <c r="C236">
-        <v>179000</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>631</v>
       </c>
       <c r="C237">
-        <v>84150</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5350,7 +5350,7 @@
         <v>632</v>
       </c>
       <c r="C238">
-        <v>205100</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>633</v>
       </c>
       <c r="C239">
-        <v>104550</v>
+        <v>64920</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>634</v>
       </c>
       <c r="C241">
-        <v>65900</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>635</v>
       </c>
       <c r="C242">
-        <v>33580</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5399,7 +5399,7 @@
         <v>636</v>
       </c>
       <c r="C243">
-        <v>73920</v>
+        <v>87980</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5410,7 +5410,7 @@
         <v>637</v>
       </c>
       <c r="C244">
-        <v>167160</v>
+        <v>247650</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>638</v>
       </c>
       <c r="C245">
-        <v>44900</v>
+        <v>143560</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>639</v>
       </c>
       <c r="C246">
-        <v>194830</v>
+        <v>141300</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5443,7 +5443,7 @@
         <v>640</v>
       </c>
       <c r="C247">
-        <v>159000</v>
+        <v>107950</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>641</v>
       </c>
       <c r="C248">
-        <v>81350</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5465,7 +5465,7 @@
         <v>642</v>
       </c>
       <c r="C249">
-        <v>98890</v>
+        <v>138410</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5476,7 +5476,7 @@
         <v>643</v>
       </c>
       <c r="C250">
-        <v>61050</v>
+        <v>29840</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5487,7 +5487,7 @@
         <v>644</v>
       </c>
       <c r="C251">
-        <v>72880</v>
+        <v>789790</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>645</v>
       </c>
       <c r="C252">
-        <v>22500</v>
+        <v>643010</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>646</v>
       </c>
       <c r="C253">
-        <v>21730</v>
+        <v>49900</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5520,7 +5520,7 @@
         <v>647</v>
       </c>
       <c r="C254">
-        <v>243470</v>
+        <v>102050</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5531,7 +5531,7 @@
         <v>648</v>
       </c>
       <c r="C255">
-        <v>223420</v>
+        <v>17750</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5542,7 +5542,7 @@
         <v>649</v>
       </c>
       <c r="C256">
-        <v>79000</v>
+        <v>50230</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>650</v>
       </c>
       <c r="C257">
-        <v>48970</v>
+        <v>598210</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>651</v>
       </c>
       <c r="C258">
-        <v>398970</v>
+        <v>107940</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5572,10 +5572,10 @@
         <v>242</v>
       </c>
       <c r="B259" t="s">
-        <v>652</v>
+        <v>475</v>
       </c>
       <c r="C259">
-        <v>72490</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5583,10 +5583,10 @@
         <v>243</v>
       </c>
       <c r="B260" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C260">
-        <v>794150</v>
+        <v>199230</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5594,10 +5594,10 @@
         <v>244</v>
       </c>
       <c r="B261" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C261">
-        <v>50230</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5605,10 +5605,10 @@
         <v>245</v>
       </c>
       <c r="B262" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C262">
-        <v>130440</v>
+        <v>651700</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5616,10 +5616,10 @@
         <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C263">
-        <v>48120</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5627,10 +5627,10 @@
         <v>247</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C264">
-        <v>173130</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5638,10 +5638,10 @@
         <v>248</v>
       </c>
       <c r="B265" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C265">
-        <v>173745</v>
+        <v>27240</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5649,10 +5649,10 @@
         <v>249</v>
       </c>
       <c r="B266" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C266">
-        <v>183750</v>
+        <v>708880</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5660,10 +5660,10 @@
         <v>250</v>
       </c>
       <c r="B267" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C267">
-        <v>160110</v>
+        <v>322970</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5671,10 +5671,10 @@
         <v>251</v>
       </c>
       <c r="B268" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C268">
-        <v>154000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5682,10 +5682,10 @@
         <v>252</v>
       </c>
       <c r="B269" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C269">
-        <v>32800</v>
+        <v>814480</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5693,10 +5693,10 @@
         <v>253</v>
       </c>
       <c r="B270" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C270">
-        <v>29800</v>
+        <v>134100</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5704,10 +5704,10 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C271">
-        <v>947096</v>
+        <v>705599</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>255</v>
       </c>
       <c r="B273" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C273">
-        <v>266490</v>
+        <v>128310</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C274">
-        <v>38120</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>257</v>
       </c>
       <c r="B275" t="s">
-        <v>667</v>
+        <v>573</v>
       </c>
       <c r="C275">
-        <v>63700</v>
+        <v>248750</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>258</v>
       </c>
       <c r="B276" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C276">
-        <v>91400</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>259</v>
       </c>
       <c r="B277" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C277">
-        <v>106670</v>
+        <v>222370</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5780,10 +5780,10 @@
         <v>260</v>
       </c>
       <c r="B279" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C279">
-        <v>100130</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5791,10 +5791,10 @@
         <v>261</v>
       </c>
       <c r="B280" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C280">
-        <v>1269000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5802,10 +5802,10 @@
         <v>262</v>
       </c>
       <c r="B281" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C281">
-        <v>642730</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5813,10 +5813,10 @@
         <v>263</v>
       </c>
       <c r="B282" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C282">
-        <v>69000</v>
+        <v>99420</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5824,10 +5824,10 @@
         <v>264</v>
       </c>
       <c r="B283" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C283">
-        <v>37990</v>
+        <v>202830</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>265</v>
       </c>
       <c r="B285" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C285">
-        <v>227050</v>
+        <v>249000</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>266</v>
       </c>
       <c r="B286" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C286">
-        <v>637500</v>
+        <v>58880</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>267</v>
       </c>
       <c r="B287" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C287">
-        <v>54470</v>
+        <v>97650</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>268</v>
       </c>
       <c r="B288" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C288">
-        <v>128990</v>
+        <v>77390</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>269</v>
       </c>
       <c r="B289" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C289">
-        <v>599110</v>
+        <v>285940</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>270</v>
       </c>
       <c r="B290" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C290">
-        <v>1089180</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>271</v>
       </c>
       <c r="B291" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C291">
-        <v>45400</v>
+        <v>879700</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>272</v>
       </c>
       <c r="B292" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C292">
-        <v>108240</v>
+        <v>37150</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>273</v>
       </c>
       <c r="B293" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C293">
-        <v>198000</v>
+        <v>250200</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>274</v>
       </c>
       <c r="B294" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C294">
-        <v>77740</v>
+        <v>65440</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>275</v>
       </c>
       <c r="B295" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C295">
-        <v>489740</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>276</v>
       </c>
       <c r="B296" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C296">
-        <v>49600</v>
+        <v>241750</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>277</v>
       </c>
       <c r="B297" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C297">
-        <v>219000</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>278</v>
       </c>
       <c r="B298" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C298">
-        <v>245310</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>279</v>
       </c>
       <c r="B299" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C299">
-        <v>98000</v>
+        <v>489740</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>280</v>
       </c>
       <c r="B300" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C300">
-        <v>184640</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>281</v>
       </c>
       <c r="B301" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C301">
-        <v>559000</v>
+        <v>33580</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>282</v>
       </c>
       <c r="B302" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C302">
-        <v>709720</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>283</v>
       </c>
       <c r="B303" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C303">
-        <v>547220</v>
+        <v>189050</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C304">
-        <v>1162500</v>
+        <v>92580</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>285</v>
       </c>
       <c r="B305" t="s">
-        <v>593</v>
+        <v>693</v>
       </c>
       <c r="C305">
-        <v>248750</v>
+        <v>287550</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C306">
-        <v>189000</v>
+        <v>268000</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>287</v>
       </c>
       <c r="B307" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C307">
-        <v>879700</v>
+        <v>1346060</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>288</v>
       </c>
       <c r="B308" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C308">
-        <v>1028950</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>289</v>
       </c>
       <c r="B309" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C309">
-        <v>64680</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>290</v>
       </c>
       <c r="B310" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C310">
-        <v>36220</v>
+        <v>119310</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>291</v>
       </c>
       <c r="B311" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C311">
-        <v>141010</v>
+        <v>64510</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>292</v>
       </c>
       <c r="B312" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C312">
-        <v>139000</v>
+        <v>399000</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>293</v>
       </c>
       <c r="B313" t="s">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="C313">
-        <v>674820</v>
+        <v>77420</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6162,7 +6162,7 @@
         <v>702</v>
       </c>
       <c r="C314">
-        <v>127950</v>
+        <v>632686</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6173,7 +6173,7 @@
         <v>703</v>
       </c>
       <c r="C315">
-        <v>1180000</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6189,7 +6189,7 @@
         <v>704</v>
       </c>
       <c r="C317">
-        <v>169000</v>
+        <v>97940</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6200,7 +6200,7 @@
         <v>705</v>
       </c>
       <c r="C318">
-        <v>299000</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6211,7 +6211,7 @@
         <v>706</v>
       </c>
       <c r="C319">
-        <v>277480</v>
+        <v>495030</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6222,7 +6222,7 @@
         <v>707</v>
       </c>
       <c r="C320">
-        <v>674860</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6233,7 +6233,7 @@
         <v>708</v>
       </c>
       <c r="C321">
-        <v>268000</v>
+        <v>25950</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>709</v>
       </c>
       <c r="C323">
-        <v>81880</v>
+        <v>92910</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6257,10 +6257,10 @@
         <v>302</v>
       </c>
       <c r="B324" t="s">
-        <v>464</v>
+        <v>710</v>
       </c>
       <c r="C324">
-        <v>59400</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6268,10 +6268,10 @@
         <v>303</v>
       </c>
       <c r="B325" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C325">
-        <v>686400</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6279,10 +6279,10 @@
         <v>304</v>
       </c>
       <c r="B326" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C326">
-        <v>143780</v>
+        <v>184000</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6290,10 +6290,10 @@
         <v>305</v>
       </c>
       <c r="B327" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C327">
-        <v>1297380</v>
+        <v>38830</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6306,10 +6306,10 @@
         <v>306</v>
       </c>
       <c r="B329" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C329">
-        <v>35410</v>
+        <v>54870</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6317,10 +6317,10 @@
         <v>307</v>
       </c>
       <c r="B330" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C330">
-        <v>59840</v>
+        <v>182350</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6328,10 +6328,10 @@
         <v>308</v>
       </c>
       <c r="B331" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C331">
-        <v>187600</v>
+        <v>147690</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6339,10 +6339,10 @@
         <v>309</v>
       </c>
       <c r="B332" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C332">
-        <v>22280</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6350,10 +6350,10 @@
         <v>310</v>
       </c>
       <c r="B333" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C333">
-        <v>189050</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6361,10 +6361,10 @@
         <v>311</v>
       </c>
       <c r="B334" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C334">
-        <v>146860</v>
+        <v>576190</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6372,10 +6372,10 @@
         <v>312</v>
       </c>
       <c r="B335" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C335">
-        <v>119000</v>
+        <v>91630</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6383,10 +6383,10 @@
         <v>313</v>
       </c>
       <c r="B336" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C336">
-        <v>58300</v>
+        <v>35410</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6394,10 +6394,10 @@
         <v>314</v>
       </c>
       <c r="B337" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C337">
-        <v>93250</v>
+        <v>257990</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6405,10 +6405,10 @@
         <v>315</v>
       </c>
       <c r="B338" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C338">
-        <v>34980</v>
+        <v>27120</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6416,10 +6416,10 @@
         <v>316</v>
       </c>
       <c r="B339" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C339">
-        <v>268940</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6427,10 +6427,10 @@
         <v>317</v>
       </c>
       <c r="B340" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C340">
-        <v>89000</v>
+        <v>492750</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6438,10 +6438,10 @@
         <v>318</v>
       </c>
       <c r="B341" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C341">
-        <v>117390</v>
+        <v>592430</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6449,10 +6449,10 @@
         <v>319</v>
       </c>
       <c r="B342" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C342">
-        <v>91450</v>
+        <v>1037020</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6460,10 +6460,10 @@
         <v>320</v>
       </c>
       <c r="B343" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C343">
-        <v>184000</v>
+        <v>212510</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6471,10 +6471,10 @@
         <v>321</v>
       </c>
       <c r="B344" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C344">
-        <v>40530</v>
+        <v>220140</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6482,10 +6482,10 @@
         <v>322</v>
       </c>
       <c r="B345" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C345">
-        <v>89100</v>
+        <v>1198950</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6493,10 +6493,10 @@
         <v>323</v>
       </c>
       <c r="B346" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C346">
-        <v>309480</v>
+        <v>667970</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6504,10 +6504,10 @@
         <v>324</v>
       </c>
       <c r="B347" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C347">
-        <v>26350</v>
+        <v>155730</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6515,10 +6515,10 @@
         <v>325</v>
       </c>
       <c r="B348" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C348">
-        <v>82260</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6526,10 +6526,10 @@
         <v>326</v>
       </c>
       <c r="B349" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C349">
-        <v>594520</v>
+        <v>137030</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6537,10 +6537,10 @@
         <v>327</v>
       </c>
       <c r="B350" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C350">
-        <v>674030</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6548,10 +6548,10 @@
         <v>328</v>
       </c>
       <c r="B351" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C351">
-        <v>19850</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6559,10 +6559,10 @@
         <v>329</v>
       </c>
       <c r="B352" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C352">
-        <v>319000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6570,10 +6570,10 @@
         <v>330</v>
       </c>
       <c r="B353" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C353">
-        <v>835040</v>
+        <v>77260</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6581,10 +6581,10 @@
         <v>331</v>
       </c>
       <c r="B354" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C354">
-        <v>243650</v>
+        <v>38120</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6592,10 +6592,10 @@
         <v>332</v>
       </c>
       <c r="B355" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C355">
-        <v>139000</v>
+        <v>367829</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6603,10 +6603,10 @@
         <v>333</v>
       </c>
       <c r="B356" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C356">
-        <v>77310</v>
+        <v>36220</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6614,10 +6614,10 @@
         <v>334</v>
       </c>
       <c r="B357" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C357">
-        <v>49760</v>
+        <v>37020</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6625,10 +6625,10 @@
         <v>335</v>
       </c>
       <c r="B358" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C358">
-        <v>399560</v>
+        <v>625880</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6636,10 +6636,10 @@
         <v>336</v>
       </c>
       <c r="B359" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C359">
-        <v>430667</v>
+        <v>1296370</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6652,10 +6652,10 @@
         <v>337</v>
       </c>
       <c r="B361" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C361">
-        <v>107950</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6663,10 +6663,10 @@
         <v>338</v>
       </c>
       <c r="B362" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C362">
-        <v>41900</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6674,10 +6674,10 @@
         <v>339</v>
       </c>
       <c r="B363" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C363">
-        <v>399000</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6685,10 +6685,10 @@
         <v>340</v>
       </c>
       <c r="B364" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C364">
-        <v>134990</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6696,10 +6696,10 @@
         <v>341</v>
       </c>
       <c r="B365" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C365">
-        <v>98430</v>
+        <v>151050</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6712,10 +6712,10 @@
         <v>342</v>
       </c>
       <c r="B367" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C367">
-        <v>179000</v>
+        <v>268340</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6723,10 +6723,10 @@
         <v>343</v>
       </c>
       <c r="B368" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C368">
-        <v>335350</v>
+        <v>355410</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6734,10 +6734,10 @@
         <v>344</v>
       </c>
       <c r="B369" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C369">
-        <v>88000</v>
+        <v>107950</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6745,10 +6745,10 @@
         <v>345</v>
       </c>
       <c r="B370" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C370">
-        <v>37420</v>
+        <v>29130</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6756,10 +6756,10 @@
         <v>346</v>
       </c>
       <c r="B371" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C371">
-        <v>204160</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6772,10 +6772,10 @@
         <v>347</v>
       </c>
       <c r="B373" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C373">
-        <v>155730</v>
+        <v>89610</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6783,10 +6783,10 @@
         <v>348</v>
       </c>
       <c r="B374" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C374">
-        <v>71200</v>
+        <v>198950</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6794,10 +6794,10 @@
         <v>349</v>
       </c>
       <c r="B375" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C375">
-        <v>597600</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6805,10 +6805,10 @@
         <v>350</v>
       </c>
       <c r="B376" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C376">
-        <v>69000</v>
+        <v>674050</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6816,10 +6816,10 @@
         <v>351</v>
       </c>
       <c r="B377" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C377">
-        <v>198950</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6827,10 +6827,10 @@
         <v>352</v>
       </c>
       <c r="B378" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C378">
-        <v>33900</v>
+        <v>81880</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6838,10 +6838,10 @@
         <v>353</v>
       </c>
       <c r="B379" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C379">
-        <v>216990</v>
+        <v>686400</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6849,10 +6849,10 @@
         <v>354</v>
       </c>
       <c r="B380" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C380">
-        <v>193200</v>
+        <v>176040</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6860,10 +6860,10 @@
         <v>355</v>
       </c>
       <c r="B381" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C381">
-        <v>287550</v>
+        <v>129580</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6871,10 +6871,10 @@
         <v>356</v>
       </c>
       <c r="B382" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C382">
-        <v>246180</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6882,10 +6882,10 @@
         <v>357</v>
       </c>
       <c r="B383" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C383">
-        <v>176040</v>
+        <v>576356</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6893,10 +6893,10 @@
         <v>358</v>
       </c>
       <c r="B384" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C384">
-        <v>48080</v>
+        <v>34980</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6904,10 +6904,10 @@
         <v>359</v>
       </c>
       <c r="B385" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C385">
-        <v>802720</v>
+        <v>173745</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6915,10 +6915,10 @@
         <v>360</v>
       </c>
       <c r="B386" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C386">
-        <v>199000</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6926,10 +6926,10 @@
         <v>361</v>
       </c>
       <c r="B387" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C387">
-        <v>85400</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6937,10 +6937,10 @@
         <v>362</v>
       </c>
       <c r="B388" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C388">
-        <v>27690</v>
+        <v>86570</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6948,10 +6948,10 @@
         <v>363</v>
       </c>
       <c r="B389" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C389">
-        <v>97840</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6959,10 +6959,10 @@
         <v>364</v>
       </c>
       <c r="B390" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C390">
-        <v>139000</v>
+        <v>231870</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6970,10 +6970,10 @@
         <v>365</v>
       </c>
       <c r="B391" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C391">
-        <v>534640</v>
+        <v>57650</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6981,10 +6981,10 @@
         <v>366</v>
       </c>
       <c r="B392" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C392">
-        <v>374400</v>
+        <v>74960</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6992,10 +6992,10 @@
         <v>367</v>
       </c>
       <c r="B393" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C393">
-        <v>106940</v>
+        <v>454770</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7003,10 +7003,10 @@
         <v>368</v>
       </c>
       <c r="B394" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C394">
-        <v>139000</v>
+        <v>749000</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7014,10 +7014,10 @@
         <v>369</v>
       </c>
       <c r="B395" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C395">
-        <v>67000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7025,10 +7025,10 @@
         <v>370</v>
       </c>
       <c r="B396" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C396">
-        <v>112840</v>
+        <v>22280</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7036,10 +7036,10 @@
         <v>371</v>
       </c>
       <c r="B397" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C397">
-        <v>94630</v>
+        <v>26880</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7047,10 +7047,10 @@
         <v>372</v>
       </c>
       <c r="B398" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C398">
-        <v>111410</v>
+        <v>1399950</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7058,10 +7058,10 @@
         <v>373</v>
       </c>
       <c r="B399" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C399">
-        <v>628335</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7069,10 +7069,10 @@
         <v>374</v>
       </c>
       <c r="B400" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C400">
-        <v>89610</v>
+        <v>518702</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7080,10 +7080,10 @@
         <v>375</v>
       </c>
       <c r="B401" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C401">
-        <v>64900</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7091,10 +7091,10 @@
         <v>376</v>
       </c>
       <c r="B402" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C402">
-        <v>24290</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7102,10 +7102,10 @@
         <v>377</v>
       </c>
       <c r="B403" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C403">
-        <v>39800</v>
+        <v>131860</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7118,10 +7118,10 @@
         <v>378</v>
       </c>
       <c r="B405" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C405">
-        <v>44980</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7129,10 +7129,10 @@
         <v>379</v>
       </c>
       <c r="B406" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C406">
-        <v>96980</v>
+        <v>1269000</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7140,10 +7140,10 @@
         <v>380</v>
       </c>
       <c r="B407" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C407">
-        <v>82440</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7151,10 +7151,10 @@
         <v>381</v>
       </c>
       <c r="B408" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C408">
-        <v>249000</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7162,10 +7162,10 @@
         <v>382</v>
       </c>
       <c r="B409" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C409">
-        <v>278400</v>
+        <v>103100</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7178,10 +7178,10 @@
         <v>383</v>
       </c>
       <c r="B411" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C411">
-        <v>36460</v>
+        <v>219000</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7189,10 +7189,10 @@
         <v>384</v>
       </c>
       <c r="B412" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C412">
-        <v>158950</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7200,10 +7200,10 @@
         <v>385</v>
       </c>
       <c r="B413" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C413">
-        <v>17550</v>
+        <v>60050</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7211,10 +7211,10 @@
         <v>386</v>
       </c>
       <c r="B414" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C414">
-        <v>23520</v>
+        <v>38220</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7222,10 +7222,10 @@
         <v>387</v>
       </c>
       <c r="B415" t="s">
-        <v>794</v>
+        <v>567</v>
       </c>
       <c r="C415">
-        <v>59760</v>
+        <v>61660</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7241,7 +7241,7 @@
         <v>795</v>
       </c>
       <c r="C417">
-        <v>1090000</v>
+        <v>195300</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7252,7 +7252,7 @@
         <v>796</v>
       </c>
       <c r="C418">
-        <v>57630</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7263,7 +7263,7 @@
         <v>797</v>
       </c>
       <c r="C419">
-        <v>518950</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7274,7 +7274,7 @@
         <v>798</v>
       </c>
       <c r="C420">
-        <v>125330</v>
+        <v>196200</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7285,7 +7285,7 @@
         <v>799</v>
       </c>
       <c r="C421">
-        <v>168000</v>
+        <v>243650</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7296,7 +7296,7 @@
         <v>800</v>
       </c>
       <c r="C422">
-        <v>249000</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>801</v>
       </c>
       <c r="C423">
-        <v>46410</v>
+        <v>246110</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7318,7 +7318,7 @@
         <v>802</v>
       </c>
       <c r="C424">
-        <v>591580</v>
+        <v>308620</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7329,7 +7329,7 @@
         <v>803</v>
       </c>
       <c r="C425">
-        <v>243800</v>
+        <v>146910</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7340,7 +7340,7 @@
         <v>804</v>
       </c>
       <c r="C426">
-        <v>143560</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7351,7 +7351,7 @@
         <v>805</v>
       </c>
       <c r="C427">
-        <v>69500</v>
+        <v>183090</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7362,7 +7362,7 @@
         <v>806</v>
       </c>
       <c r="C428">
-        <v>579980</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7373,7 +7373,7 @@
         <v>807</v>
       </c>
       <c r="C429">
-        <v>86400</v>
+        <v>225930</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7384,7 +7384,7 @@
         <v>808</v>
       </c>
       <c r="C430">
-        <v>129120</v>
+        <v>390640</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7395,7 +7395,7 @@
         <v>809</v>
       </c>
       <c r="C431">
-        <v>42220</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7406,7 +7406,7 @@
         <v>810</v>
       </c>
       <c r="C432">
-        <v>360000</v>
+        <v>852630</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7417,7 +7417,7 @@
         <v>811</v>
       </c>
       <c r="C433">
-        <v>15700</v>
+        <v>185880</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7428,7 +7428,7 @@
         <v>812</v>
       </c>
       <c r="C434">
-        <v>77600</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7439,7 +7439,7 @@
         <v>813</v>
       </c>
       <c r="C435">
-        <v>137980</v>
+        <v>84150</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7450,7 +7450,7 @@
         <v>814</v>
       </c>
       <c r="C436">
-        <v>75410</v>
+        <v>667260</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>815</v>
       </c>
       <c r="C437">
-        <v>8320</v>
+        <v>504990</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7472,7 +7472,7 @@
         <v>816</v>
       </c>
       <c r="C438">
-        <v>129580</v>
+        <v>94840</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7483,7 +7483,7 @@
         <v>817</v>
       </c>
       <c r="C439">
-        <v>36700</v>
+        <v>29820</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>818</v>
       </c>
       <c r="C440">
-        <v>48960</v>
+        <v>37720</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>819</v>
       </c>
       <c r="C441">
-        <v>176170</v>
+        <v>129120</v>
       </c>
     </row>
   </sheetData>
